--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Strack\001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="11" r:id="rId1"/>
@@ -32,8 +32,308 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Qiang Zhang</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enter "?setup_expts" under an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> console for details of the column keys.
+Column keys </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A1 - H1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> are reserved.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The file names of RAW MS data. Use file </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac_smry.xlsx</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> if more than one RAW file per TMT set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unique</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> sample IDs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample IDs being references</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samples will be included in analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional: a priori knowledge of sample groups</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional: the order of sample groups in analysis such as NMF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Columns </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>P1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: optional settings in aesthetics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A group of contrasts for uses in statistical modelings 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Another group of contrasts for uses in statistical modelings 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Duplicated samples for corrections in statistical significance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Benchmark samples for use in analysis such as heat map visualization</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exemplary metadata</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exemplary metadata</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
   <si>
     <t>Description</t>
   </si>
@@ -252,13 +552,19 @@
   </si>
   <si>
     <t>Term_2</t>
+  </si>
+  <si>
+    <t>131N</t>
+  </si>
+  <si>
+    <t>131C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,15 +706,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,54 +936,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="5" tint="0.40000610370189521"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF00B050"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFF66FF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="2" tint="-0.25098422193060094"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFF6600"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFF3399"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.59999389629810485"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="3" tint="0.40000610370189521"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -752,6 +1152,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -797,11 +1243,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -809,36 +1252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -846,80 +1262,151 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -970,6 +1457,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FF996633"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF33CC"/>
     </mruColors>
@@ -1262,86 +1753,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="18" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="5" customWidth="1"/>
     <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1" customWidth="1"/>
     <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>25</v>
       </c>
       <c r="Q1" s="14" t="s">
@@ -1350,846 +1841,949 @@
       <c r="R1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>126</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="21">
         <v>1</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="21">
         <v>3</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="21" t="s">
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="4" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="21">
         <v>1</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="29" t="s">
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25" t="s">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="21">
         <v>1</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="29" t="s">
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25" t="s">
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="21">
         <v>3</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="27" t="s">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="4" t="s">
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="G7" s="4" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="21">
         <v>1</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="29" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="21">
         <v>3</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="27" t="s">
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="4" t="s">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="G9" s="4" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="21">
         <v>3</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="27" t="s">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="4" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="G10" s="6" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="33">
         <v>1</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="30" t="s">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25" t="s">
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>131</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="G11" s="6" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="33">
         <v>3</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="M11" s="16"/>
+      <c r="N11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="28" t="s">
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="4" t="s">
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>126</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="38">
         <v>1</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="43">
         <v>2</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="M12" s="38"/>
+      <c r="N12" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="23" t="s">
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25" t="s">
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="G13" s="5" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="43">
         <v>4</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="M13" s="38"/>
+      <c r="N13" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="31" t="s">
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="4" t="s">
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="G14" s="6" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="52">
         <v>2</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="44" t="s">
+      <c r="M14" s="38"/>
+      <c r="N14" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="33" t="s">
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25" t="s">
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="G15" s="6" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="52">
         <v>2</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="M15" s="38"/>
+      <c r="N15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="33" t="s">
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25" t="s">
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="G16" s="6" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="52">
         <v>4</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="M16" s="38"/>
+      <c r="N16" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="32" t="s">
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="4" t="s">
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="G17" s="6" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="52">
         <v>2</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="44" t="s">
+      <c r="M17" s="38"/>
+      <c r="N17" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="33" t="s">
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="25" t="s">
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="G18" s="6" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="52">
         <v>4</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="44" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="32" t="s">
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="4" t="s">
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="G19" s="6" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="52">
         <v>4</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="M19" s="38"/>
+      <c r="N19" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="32" t="s">
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="4" t="s">
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="G20" s="6" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="52">
         <v>2</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="M20" s="38"/>
+      <c r="N20" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="33" t="s">
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25" t="s">
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>131</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="G21" s="6" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="52">
         <v>4</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="M21" s="38"/>
+      <c r="N21" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="32" t="s">
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="41" t="s">
+      <c r="R21" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="4" t="s">
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="37" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B21">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C21">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please select the species from the list" promptTitle="Species" prompt="Please select the species from the list">
           <x14:formula1>
             <xm:f>'C:\Results\Strack\001\[expt_smry - Copy.xlsx]Params'!#REF!</xm:f>
@@ -2202,6 +2796,12 @@
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter one of  126, 127, 128, 129, 130, 131 for 6-plex TMT;  126, 127N, 127C, 128N,128C,  129N, 129C, 130N, 130C, 131 for 10-plex TMT or  126, 127N, 127C, 128N,128C,  129N, 129C, 130N, 130C, 131N, 131C for 11-plex TMT_x000a__x000a_" promptTitle="TMT channel" prompt="Enter the names of TMT channels">
+          <x14:formula1>
+            <xm:f>Params!$A$2:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A21</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2210,46 +2810,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -15,11 +15,8 @@
     <sheet name="Setup" sheetId="11" r:id="rId1"/>
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$A$1:$W$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$A$1:$U$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,14 +330,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Viability</t>
   </si>
   <si>
@@ -416,28 +410,7 @@
     <t>Term</t>
   </si>
   <si>
-    <t>Accession_Type</t>
-  </si>
-  <si>
-    <t>refseq_acc</t>
-  </si>
-  <si>
     <t>Benchmark</t>
-  </si>
-  <si>
-    <t>uniprot_id</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>pdx</t>
   </si>
   <si>
     <t>Fill</t>
@@ -564,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +725,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF99CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="44">
@@ -1289,9 +1269,6 @@
     <xf numFmtId="49" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1321,9 +1298,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,9 +1321,6 @@
     <xf numFmtId="49" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1372,9 +1343,6 @@
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1408,6 +1376,10 @@
     <xf numFmtId="0" fontId="18" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1457,8 +1429,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FFFF99CC"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF996633"/>
       <color rgb="FFFF66FF"/>
@@ -1474,21 +1446,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Setup"/>
-      <sheetName val="Params"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1754,12 +1711,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,97 +1724,89 @@
     <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1" customWidth="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="59" t="s">
+      <c r="U1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>126</v>
       </c>
@@ -1868,913 +1817,872 @@
         <v>1</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="F2" s="19"/>
       <c r="G2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="60">
+        <v>1</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="21">
-        <v>1</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="21">
+        <v>33</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="62">
         <v>3</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="21">
+      <c r="H4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="60">
         <v>1</v>
       </c>
+      <c r="J4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="16"/>
       <c r="L4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="21">
+        <v>38</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="60">
         <v>1</v>
       </c>
+      <c r="J5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="16"/>
       <c r="L5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="21">
+        <v>40</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="62">
         <v>3</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="19"/>
       <c r="G7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="21">
+        <v>41</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="60">
         <v>1</v>
       </c>
+      <c r="J7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="16"/>
       <c r="L7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="21">
+        <v>43</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="62">
         <v>3</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="21">
+        <v>45</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="62">
         <v>3</v>
       </c>
-      <c r="L9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="33">
+      <c r="E10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="60">
         <v>1</v>
       </c>
+      <c r="J10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="16"/>
       <c r="L10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>131</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="31" t="s">
+      <c r="E11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="62">
+        <v>3</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>126</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="61">
+        <v>2</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="63">
+        <v>4</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="61">
+        <v>2</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="31" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="H15" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="61">
+        <v>2</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="63">
+        <v>4</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="61">
+        <v>2</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="33">
-        <v>3</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <v>126</v>
-      </c>
-      <c r="B12" s="38">
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="63">
         <v>2</v>
       </c>
-      <c r="C12" s="38">
-        <v>1</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="43">
+      <c r="J18" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="63">
+        <v>4</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="61">
         <v>2</v>
       </c>
-      <c r="L12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="J20" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>131</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="43">
-        <v>4</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="48" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="R13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="52">
+      <c r="H21" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="63">
         <v>2</v>
       </c>
-      <c r="L14" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="52">
-        <v>2</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="52">
-        <v>4</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="R16" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="52">
-        <v>2</v>
-      </c>
-      <c r="L17" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="37" t="s">
+      <c r="J21" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="52">
-        <v>4</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="52">
-        <v>4</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="R19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="52">
-        <v>2</v>
-      </c>
-      <c r="L20" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
-        <v>131</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="52">
-        <v>4</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="R21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B21">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C21">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="Sample order" prompt="Optional: provide the order of samples or sample groups" sqref="I2 I3:I21">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2783,19 +2691,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please select the species from the list" promptTitle="Species" prompt="Please select the species from the list">
-          <x14:formula1>
-            <xm:f>'C:\Results\Strack\001\[expt_smry - Copy.xlsx]Params'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry!" error="Please select the type of protein accession from the list" promptTitle="Accession Type" prompt="Please select the type of protein accession from the list">
-          <x14:formula1>
-            <xm:f>'C:\Results\Strack\001\[expt_smry - Copy.xlsx]Params'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter one of  126, 127, 128, 129, 130, 131 for 6-plex TMT;  126, 127N, 127C, 128N,128C,  129N, 129C, 130N, 130C, 131 for 10-plex TMT or  126, 127N, 127C, 128N,128C,  129N, 129C, 130N, 130C, 131N, 131C for 11-plex TMT_x000a__x000a_" promptTitle="TMT channel" prompt="Enter the names of TMT channels">
           <x14:formula1>
             <xm:f>Params!$A$2:$A$23</xm:f>
@@ -2810,151 +2706,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>128</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -44,7 +44,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Enter "?setup_expts" under an </t>
+          <t xml:space="preserve">Enter "?load_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -1716,7 +1716,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Mertins_Nat_Protoc_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
   </bookViews>
   <sheets>
-    <sheet name="Setup" sheetId="11" r:id="rId1"/>
+    <sheet name="Setup" sheetId="15" r:id="rId1"/>
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$A$1:$U$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$A$1:$U$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +44,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Enter "?load_expts" under an </t>
+          <t xml:space="preserve">Enter "?setup_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -330,11 +330,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="132">
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Species</t>
+  </si>
+  <si>
     <t>Viability</t>
   </si>
   <si>
@@ -410,127 +413,319 @@
     <t>Term</t>
   </si>
   <si>
+    <t>Accession_Type</t>
+  </si>
+  <si>
+    <t>refseq_acc</t>
+  </si>
+  <si>
     <t>Benchmark</t>
   </si>
   <si>
+    <t>uniprot_id</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>pdx</t>
+  </si>
+  <si>
     <t>Fill</t>
   </si>
   <si>
-    <t>W2.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W2.TMT1</t>
+    <t>TMT1</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep1</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep1</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep2</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep3</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep2</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep3</t>
+  </si>
+  <si>
+    <t>WHIM2 digest, tech rep4</t>
+  </si>
+  <si>
+    <t>WHIM16 digest, tech rep4</t>
+  </si>
+  <si>
+    <t>TMT2</t>
+  </si>
+  <si>
+    <t>Term_2</t>
+  </si>
+  <si>
+    <t>131N</t>
+  </si>
+  <si>
+    <t>131C</t>
+  </si>
+  <si>
+    <t>W2.BI.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.BI.TMT1</t>
+  </si>
+  <si>
+    <t>W16.BI.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI.TMT1</t>
+  </si>
+  <si>
+    <t>W2.BI.TMT2</t>
+  </si>
+  <si>
+    <t>W2.BI</t>
+  </si>
+  <si>
+    <t>W16.BI</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W2.PNNL.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.PNNL.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR1.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR2.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR3.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR4.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR5.TMT1</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR1.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR2.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR3.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR4.TMT2</t>
+  </si>
+  <si>
+    <t>W2.JHU.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>W16.JHU.TR5.TMT2</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>JHU</t>
+  </si>
+  <si>
+    <t>PNNL</t>
   </si>
   <si>
     <t>W2</t>
   </si>
   <si>
-    <t>TMT1</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep1</t>
-  </si>
-  <si>
-    <t>W16.TR1.TMT1</t>
-  </si>
-  <si>
-    <t>W16.TMT1</t>
-  </si>
-  <si>
     <t>W16</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep1</t>
-  </si>
-  <si>
-    <t>W2.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep2</t>
-  </si>
-  <si>
-    <t>W16.TR2.TMT1</t>
-  </si>
-  <si>
-    <t>W2.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep3</t>
-  </si>
-  <si>
-    <t>W16.TR3.TMT1</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep2</t>
-  </si>
-  <si>
-    <t>W16.TR4.TMT1</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep3</t>
-  </si>
-  <si>
-    <t>W2.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>WHIM2 digest, tech rep4</t>
-  </si>
-  <si>
-    <t>W16.TR5.TMT1</t>
-  </si>
-  <si>
-    <t>WHIM16 digest, tech rep4</t>
-  </si>
-  <si>
-    <t>W2.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W2.TMT2</t>
-  </si>
-  <si>
-    <t>TMT2</t>
-  </si>
-  <si>
-    <t>W16.TR1.TMT2</t>
-  </si>
-  <si>
-    <t>W16.TMT2</t>
-  </si>
-  <si>
-    <t>W2.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.TR2.TMT2</t>
-  </si>
-  <si>
-    <t>W2.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W16.TR3.TMT2</t>
-  </si>
-  <si>
-    <t>W16.TR4.TMT2</t>
-  </si>
-  <si>
-    <t>W2.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>W16.TR5.TMT2</t>
-  </si>
-  <si>
-    <t>Term_2</t>
-  </si>
-  <si>
-    <t>131N</t>
-  </si>
-  <si>
-    <t>131C</t>
   </si>
 </sst>
 </file>
@@ -728,7 +923,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF99CC"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1223,7 +1418,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1269,10 +1464,12 @@
     <xf numFmtId="49" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1298,6 +1495,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,10 +1521,12 @@
     <xf numFmtId="49" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1343,6 +1545,9 @@
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1376,10 +1581,36 @@
     <xf numFmtId="0" fontId="18" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1429,11 +1660,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF3399"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFFF3399"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF996633"/>
-      <color rgb="FFFF66FF"/>
       <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
@@ -1711,12 +1942,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,12 +1957,12 @@
     <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="3" customWidth="1"/>
     <col min="14" max="14" width="6.140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="9" customWidth="1"/>
@@ -1743,66 +1974,66 @@
   <sheetData>
     <row r="1" spans="1:21" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="T1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="57" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1818,161 +2049,161 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="60">
-        <v>1</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="21" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="N2" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="O2" s="20" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="23"/>
       <c r="T2" s="24"/>
       <c r="U2" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="18" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="62">
-        <v>3</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="21" t="s">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="N3" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="O3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="23"/>
       <c r="T3" s="24"/>
       <c r="U3" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="60">
-        <v>1</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="L4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O4" s="26" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="28"/>
       <c r="T4" s="24"/>
       <c r="U4" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="60">
-        <v>1</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="L5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O5" s="26" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
@@ -1984,217 +2215,217 @@
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="62">
-        <v>3</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O6" s="29" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="28"/>
       <c r="T6" s="24"/>
       <c r="U6" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="60">
-        <v>1</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="L7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O7" s="26" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="28"/>
       <c r="T7" s="24"/>
       <c r="U7" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="15" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="15" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="62">
-        <v>3</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O8" s="29" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="28"/>
       <c r="T8" s="24"/>
       <c r="U8" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="62">
-        <v>3</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O9" s="29" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="28"/>
       <c r="T9" s="24"/>
       <c r="U9" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="60">
-        <v>1</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="30"/>
-      <c r="S10" s="33"/>
+      <c r="S10" s="34"/>
       <c r="T10" s="24"/>
       <c r="U10" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2205,484 +2436,2217 @@
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="30" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="62">
-        <v>3</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
-      <c r="S11" s="33"/>
+      <c r="S11" s="34"/>
       <c r="T11" s="24"/>
       <c r="U11" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="36">
         <v>126</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="37">
         <v>2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="61">
-        <v>2</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="35" t="s">
-        <v>32</v>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="45" t="s">
+      <c r="A13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="63">
+      <c r="F14" s="40"/>
+      <c r="G14" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
+        <v>131</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>126</v>
+      </c>
+      <c r="B22" s="16">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>131</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
+        <v>126</v>
+      </c>
+      <c r="B32" s="37">
         <v>4</v>
       </c>
-      <c r="J13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="35" t="s">
+      <c r="C32" s="37">
+        <v>1</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="42"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="42"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="50"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="50"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="36">
+        <v>131</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="50"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>126</v>
+      </c>
+      <c r="B42" s="16">
+        <v>5</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="O42" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="61">
-        <v>2</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="61">
-        <v>2</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="35" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="32"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>131</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="36">
+        <v>126</v>
+      </c>
+      <c r="B52" s="37">
+        <v>6</v>
+      </c>
+      <c r="C52" s="37">
+        <v>1</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="40"/>
+      <c r="G52" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="42"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="42"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="L53" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="50"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L54" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="63">
-        <v>4</v>
-      </c>
-      <c r="J16" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="50"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="61">
-        <v>2</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="35" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="50"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L56" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="50"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L57" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="50"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L58" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="50"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L59" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="63">
-        <v>2</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="35" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="50"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="36">
+        <v>131</v>
+      </c>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="50"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="63">
-        <v>4</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="61">
-        <v>2</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>131</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="63">
-        <v>2</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B21">
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B61">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C21">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="Sample order" prompt="Optional: provide the order of samples or sample groups" sqref="I2 I3:I21">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C61">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2696,7 +4660,7 @@
           <x14:formula1>
             <xm:f>Params!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A21</xm:sqref>
+          <xm:sqref>A2:A61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2706,127 +4670,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
   </bookViews>
   <sheets>
-    <sheet name="Setup" sheetId="15" r:id="rId1"/>
+    <sheet name="Setup" sheetId="16" r:id="rId1"/>
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -1944,10 +1944,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,7 @@
     <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -4643,10 +4643,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B61">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C61">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C61">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B61">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\Mertins_Nat_Protoc_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$A$1:$U$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$U$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,6 +36,29 @@
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unique</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> sample IDs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,29 +139,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> if more than one RAW file per TMT set</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unique</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> sample IDs</t>
         </r>
       </text>
     </comment>
@@ -732,7 +732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,6 +927,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="44">
@@ -1418,7 +1423,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1432,9 +1437,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1464,9 +1466,6 @@
     <xf numFmtId="49" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1495,9 +1494,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,9 +1517,6 @@
     <xf numFmtId="49" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1545,9 +1538,6 @@
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1569,9 +1559,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1609,6 +1596,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1947,2706 +1943,2826 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
     <col min="10" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="7" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="8" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" style="5" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="14">
+        <v>126</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="67">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="67">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="56" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="67">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="67">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="67">
+        <v>7</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="68">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="68">
+        <v>7</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="68">
+        <v>7</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="68">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="14">
+        <v>131</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="68">
+        <v>7</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="33">
+        <v>126</v>
+      </c>
+      <c r="C12" s="34">
         <v>2</v>
       </c>
-      <c r="U1" s="57" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>126</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="D12" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="67">
+        <v>2</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L12" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="20" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>131</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>126</v>
-      </c>
-      <c r="B12" s="37">
-        <v>2</v>
-      </c>
-      <c r="C12" s="37">
-        <v>1</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="36" t="s">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43" t="s">
+      <c r="I13" s="67">
+        <v>8</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43" t="s">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="47" t="s">
+      <c r="P13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="36" t="s">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51" t="s">
+      <c r="I14" s="67">
+        <v>2</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="L14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="36" t="s">
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="48" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51" t="s">
+      <c r="I15" s="67">
+        <v>2</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="54" t="s">
+      <c r="L15" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51" t="s">
+      <c r="M15" s="46"/>
+      <c r="N15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="O15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="36" t="s">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="48" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51" t="s">
+      <c r="I16" s="67">
+        <v>8</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="46"/>
+      <c r="N16" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="54" t="s">
+      <c r="P16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="36" t="s">
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="48" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51" t="s">
+      <c r="I17" s="68">
+        <v>2</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="54" t="s">
+      <c r="L17" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51" t="s">
+      <c r="M17" s="46"/>
+      <c r="N17" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="49" t="s">
+      <c r="O17" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="36" t="s">
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="48" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51" t="s">
+      <c r="I18" s="68">
+        <v>8</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51" t="s">
+      <c r="M18" s="46"/>
+      <c r="N18" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="54" t="s">
+      <c r="P18" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="36" t="s">
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="48" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51" t="s">
+      <c r="I19" s="68">
+        <v>8</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51" t="s">
+      <c r="M19" s="46"/>
+      <c r="N19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="53" t="s">
+      <c r="O19" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="P19" s="54" t="s">
+      <c r="P19" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="36" t="s">
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="48" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51" t="s">
+      <c r="I20" s="68">
+        <v>2</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="54" t="s">
+      <c r="L20" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51" t="s">
+      <c r="M20" s="46"/>
+      <c r="N20" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="P20" s="51" t="s">
+      <c r="P20" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="36" t="s">
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="33">
         <v>131</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51" t="s">
+      <c r="I21" s="68">
+        <v>8</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="53" t="s">
+      <c r="O21" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="54" t="s">
+      <c r="P21" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="36" t="s">
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="14">
         <v>126</v>
       </c>
-      <c r="B22" s="16">
+      <c r="C22" s="15">
         <v>3</v>
       </c>
-      <c r="C22" s="16">
+      <c r="D22" s="15">
         <v>1</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62" t="s">
+      <c r="I22" s="67">
+        <v>3</v>
+      </c>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22" t="s">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="15" t="s">
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62" t="s">
+      <c r="I23" s="67">
+        <v>9</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22" t="s">
+      <c r="M23" s="20"/>
+      <c r="N23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="P23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="15" t="s">
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63" t="s">
+      <c r="I24" s="67">
+        <v>3</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27" t="s">
+      <c r="M24" s="25"/>
+      <c r="N24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="P24" s="26" t="s">
+      <c r="P24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="15" t="s">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="15" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63" t="s">
+      <c r="I25" s="67">
+        <v>3</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27" t="s">
+      <c r="M25" s="25"/>
+      <c r="N25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="26" t="s">
+      <c r="O25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="P25" s="26" t="s">
+      <c r="P25" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="15" t="s">
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63" t="s">
+      <c r="I26" s="67">
+        <v>9</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27" t="s">
+      <c r="M26" s="25"/>
+      <c r="N26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="29" t="s">
+      <c r="O26" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="15" t="s">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="15" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63" t="s">
+      <c r="I27" s="68">
+        <v>3</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27" t="s">
+      <c r="M27" s="25"/>
+      <c r="N27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="P27" s="26" t="s">
+      <c r="P27" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="15" t="s">
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63" t="s">
+      <c r="I28" s="68">
+        <v>9</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27" t="s">
+      <c r="M28" s="25"/>
+      <c r="N28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="29" t="s">
+      <c r="O28" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="15" t="s">
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63" t="s">
+      <c r="I29" s="68">
+        <v>9</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27" t="s">
+      <c r="M29" s="25"/>
+      <c r="N29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="29" t="s">
+      <c r="O29" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="15" t="s">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="30" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64" t="s">
+      <c r="I30" s="68">
+        <v>3</v>
+      </c>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33" t="s">
+      <c r="M30" s="30"/>
+      <c r="N30" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="P30" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="15" t="s">
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="14">
         <v>131</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="30" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64" t="s">
+      <c r="I31" s="68">
+        <v>9</v>
+      </c>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33" t="s">
+      <c r="M31" s="30"/>
+      <c r="N31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="P31" s="33" t="s">
+      <c r="P31" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="15" t="s">
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="33">
         <v>126</v>
       </c>
-      <c r="B32" s="37">
+      <c r="C32" s="34">
         <v>4</v>
       </c>
-      <c r="C32" s="37">
+      <c r="D32" s="34">
         <v>1</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41" t="s">
+      <c r="I32" s="67">
+        <v>4</v>
+      </c>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43" t="s">
+      <c r="M32" s="39"/>
+      <c r="N32" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="43" t="s">
+      <c r="P32" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="36" t="s">
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41" t="s">
+      <c r="I33" s="67">
+        <v>10</v>
+      </c>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43" t="s">
+      <c r="M33" s="39"/>
+      <c r="N33" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="O33" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="P33" s="47" t="s">
+      <c r="P33" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="36" t="s">
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="48" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49" t="s">
+      <c r="I34" s="67">
+        <v>4</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="54" t="s">
+      <c r="L34" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51" t="s">
+      <c r="M34" s="46"/>
+      <c r="N34" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="49" t="s">
+      <c r="O34" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="P34" s="51" t="s">
+      <c r="P34" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="36" t="s">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="48" t="s">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49" t="s">
+      <c r="I35" s="67">
+        <v>4</v>
+      </c>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="54" t="s">
+      <c r="L35" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51" t="s">
+      <c r="M35" s="46"/>
+      <c r="N35" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="49" t="s">
+      <c r="O35" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="P35" s="51" t="s">
+      <c r="P35" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="36" t="s">
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="48" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49" t="s">
+      <c r="I36" s="67">
+        <v>10</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L36" s="71" t="s">
+      <c r="L36" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51" t="s">
+      <c r="M36" s="46"/>
+      <c r="N36" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="53" t="s">
+      <c r="O36" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="P36" s="54" t="s">
+      <c r="P36" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="36" t="s">
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="48" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="49" t="s">
+      <c r="H37" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49" t="s">
+      <c r="I37" s="68">
+        <v>4</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L37" s="54" t="s">
+      <c r="L37" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51" t="s">
+      <c r="M37" s="46"/>
+      <c r="N37" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="P37" s="51" t="s">
+      <c r="P37" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="36" t="s">
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="48" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="50"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49" t="s">
+      <c r="I38" s="68">
+        <v>10</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L38" s="71" t="s">
+      <c r="L38" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51" t="s">
+      <c r="M38" s="46"/>
+      <c r="N38" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O38" s="53" t="s">
+      <c r="O38" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="P38" s="54" t="s">
+      <c r="P38" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="36" t="s">
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="48" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="50"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49" t="s">
+      <c r="I39" s="68">
+        <v>10</v>
+      </c>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L39" s="71" t="s">
+      <c r="L39" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51" t="s">
+      <c r="M39" s="46"/>
+      <c r="N39" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O39" s="53" t="s">
+      <c r="O39" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="P39" s="54" t="s">
+      <c r="P39" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="36" t="s">
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="48" t="s">
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49" t="s">
+      <c r="I40" s="68">
+        <v>4</v>
+      </c>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="L40" s="54" t="s">
+      <c r="L40" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51" t="s">
+      <c r="M40" s="46"/>
+      <c r="N40" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="49" t="s">
+      <c r="O40" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="P40" s="51" t="s">
+      <c r="P40" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="36" t="s">
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+      <c r="A41" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="33">
         <v>131</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="48" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="48" t="s">
+      <c r="H41" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="68">
+        <v>10</v>
+      </c>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="14">
         <v>126</v>
       </c>
-      <c r="H41" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="L41" s="71" t="s">
+      <c r="C42" s="15">
+        <v>5</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="67">
+        <v>5</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="67">
+        <v>11</v>
+      </c>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51" t="s">
+      <c r="M43" s="20"/>
+      <c r="N43" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="67">
+        <v>5</v>
+      </c>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="67">
+        <v>5</v>
+      </c>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="67">
+        <v>11</v>
+      </c>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="68">
+        <v>5</v>
+      </c>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="68">
+        <v>11</v>
+      </c>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="68">
+        <v>11</v>
+      </c>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="68">
+        <v>5</v>
+      </c>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="14">
+        <v>131</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="68">
+        <v>11</v>
+      </c>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="33">
+        <v>126</v>
+      </c>
+      <c r="C52" s="34">
+        <v>6</v>
+      </c>
+      <c r="D52" s="34">
+        <v>1</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="67">
+        <v>6</v>
+      </c>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="P41" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>126</v>
-      </c>
-      <c r="B42" s="16">
-        <v>5</v>
-      </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" s="20" t="s">
+      <c r="O52" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O43" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="P43" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P44" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P45" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O46" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O47" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P47" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O49" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O50" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P50" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>131</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="P51" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
-        <v>126</v>
-      </c>
-      <c r="B52" s="37">
-        <v>6</v>
-      </c>
-      <c r="C52" s="37">
-        <v>1</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="L52" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="O52" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="P52" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="36" t="s">
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68" t="s">
+      <c r="I53" s="67">
+        <v>12</v>
+      </c>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="L53" s="70" t="s">
+      <c r="L53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43" t="s">
+      <c r="M53" s="39"/>
+      <c r="N53" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O53" s="46" t="s">
+      <c r="O53" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="P53" s="47" t="s">
+      <c r="P53" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="36" t="s">
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="48" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="H54" s="49" t="s">
+      <c r="H54" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="50"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69" t="s">
+      <c r="I54" s="67">
+        <v>6</v>
+      </c>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L54" s="54" t="s">
+      <c r="L54" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51" t="s">
+      <c r="M54" s="46"/>
+      <c r="N54" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O54" s="49" t="s">
+      <c r="O54" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P54" s="51" t="s">
+      <c r="P54" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="36" t="s">
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="48" t="s">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H55" s="49" t="s">
+      <c r="H55" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="50"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69" t="s">
+      <c r="I55" s="67">
+        <v>6</v>
+      </c>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L55" s="54" t="s">
+      <c r="L55" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51" t="s">
+      <c r="M55" s="46"/>
+      <c r="N55" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O55" s="49" t="s">
+      <c r="O55" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P55" s="51" t="s">
+      <c r="P55" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="36" t="s">
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="48" t="s">
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I56" s="50"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69" t="s">
+      <c r="I56" s="67">
+        <v>12</v>
+      </c>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L56" s="71" t="s">
+      <c r="L56" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51" t="s">
+      <c r="M56" s="46"/>
+      <c r="N56" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O56" s="53" t="s">
+      <c r="O56" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="P56" s="54" t="s">
+      <c r="P56" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="36" t="s">
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="48" t="s">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" s="49" t="s">
+      <c r="H57" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="50"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69" t="s">
+      <c r="I57" s="68">
+        <v>6</v>
+      </c>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L57" s="54" t="s">
+      <c r="L57" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51" t="s">
+      <c r="M57" s="46"/>
+      <c r="N57" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O57" s="49" t="s">
+      <c r="O57" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P57" s="51" t="s">
+      <c r="P57" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="36" t="s">
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="48" t="s">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69" t="s">
+      <c r="I58" s="68">
+        <v>12</v>
+      </c>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L58" s="71" t="s">
+      <c r="L58" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51" t="s">
+      <c r="M58" s="46"/>
+      <c r="N58" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O58" s="53" t="s">
+      <c r="O58" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="P58" s="54" t="s">
+      <c r="P58" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="36" t="s">
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="48" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="53" t="s">
+      <c r="H59" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69" t="s">
+      <c r="I59" s="68">
+        <v>12</v>
+      </c>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L59" s="71" t="s">
+      <c r="L59" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51" t="s">
+      <c r="M59" s="46"/>
+      <c r="N59" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O59" s="53" t="s">
+      <c r="O59" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="P59" s="54" t="s">
+      <c r="P59" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="36" t="s">
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="48" t="s">
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" s="49" t="s">
+      <c r="H60" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69" t="s">
+      <c r="I60" s="68">
+        <v>6</v>
+      </c>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L60" s="54" t="s">
+      <c r="L60" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51" t="s">
+      <c r="M60" s="46"/>
+      <c r="N60" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O60" s="49" t="s">
+      <c r="O60" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P60" s="51" t="s">
+      <c r="P60" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="36" t="s">
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="36">
+      <c r="A61" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="33">
         <v>131</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="48" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="40"/>
-      <c r="G61" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H61" s="53" t="s">
+      <c r="H61" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69" t="s">
+      <c r="I61" s="68">
+        <v>12</v>
+      </c>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="L61" s="71" t="s">
+      <c r="L61" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51" t="s">
+      <c r="M61" s="46"/>
+      <c r="N61" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O61" s="53" t="s">
+      <c r="O61" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="P61" s="54" t="s">
+      <c r="P61" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="36" t="s">
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="33" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="C2:C61">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="LCMS injection" prompt="Enter the indeces of LC/MS injection" sqref="D2:D61">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="B2:B61">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong entry:" error="Please enter a positive integer" promptTitle="TMT sets" prompt="Enter the indeces of TMT experiments" sqref="C2:C61">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4660,7 +4776,7 @@
           <x14:formula1>
             <xm:f>Params!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A61</xm:sqref>
+          <xm:sqref>B2:B61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4679,18 +4795,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>126</v>
       </c>
       <c r="B2" t="s">
@@ -4701,7 +4817,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>127</v>
       </c>
       <c r="B3" t="s">
@@ -4712,7 +4828,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>128</v>
       </c>
       <c r="C4" t="s">
@@ -4720,7 +4836,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>129</v>
       </c>
       <c r="C5" t="s">
@@ -4728,92 +4844,92 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
     </row>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -330,14 +330,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="124">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Viability</t>
   </si>
   <si>
@@ -413,28 +410,7 @@
     <t>Term</t>
   </si>
   <si>
-    <t>Accession_Type</t>
-  </si>
-  <si>
-    <t>refseq_acc</t>
-  </si>
-  <si>
     <t>Benchmark</t>
-  </si>
-  <si>
-    <t>uniprot_id</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>pdx</t>
   </si>
   <si>
     <t>Fill</t>
@@ -1943,7 +1919,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,64 +1946,64 @@
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>8</v>
-      </c>
       <c r="T1" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U1" s="52" t="s">
         <v>0</v>
@@ -2035,7 +2011,7 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B2" s="14">
         <v>126</v>
@@ -2049,402 +2025,402 @@
       <c r="E2" s="16"/>
       <c r="F2" s="18"/>
       <c r="G2" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I2" s="67">
         <v>1</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="21"/>
       <c r="T2" s="22"/>
       <c r="U2" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
       <c r="F3" s="18"/>
       <c r="G3" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I3" s="67">
         <v>7</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="21"/>
       <c r="T3" s="22"/>
       <c r="U3" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I4" s="67">
         <v>1</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="26"/>
       <c r="T4" s="22"/>
       <c r="U4" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="18"/>
       <c r="G5" s="14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I5" s="67">
         <v>1</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="26"/>
       <c r="T5" s="22"/>
       <c r="U5" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
       <c r="G6" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I6" s="67">
         <v>7</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="26"/>
       <c r="T6" s="22"/>
       <c r="U6" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
       <c r="G7" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I7" s="68">
         <v>1</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="26"/>
       <c r="T7" s="22"/>
       <c r="U7" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
       <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="68">
         <v>7</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="26"/>
       <c r="T8" s="22"/>
       <c r="U8" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="18"/>
       <c r="G9" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I9" s="68">
         <v>7</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="26"/>
       <c r="T9" s="22"/>
       <c r="U9" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
       <c r="G10" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I10" s="68">
         <v>1</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="31"/>
       <c r="T10" s="22"/>
       <c r="U10" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="14">
         <v>131</v>
@@ -2454,42 +2430,42 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
       <c r="G11" s="28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I11" s="68">
         <v>7</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="31"/>
       <c r="T11" s="22"/>
       <c r="U11" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="33">
         <v>126</v>
@@ -2503,402 +2479,402 @@
       <c r="E12" s="35"/>
       <c r="F12" s="37"/>
       <c r="G12" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I12" s="67">
         <v>2</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L12" s="43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
       <c r="U12" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="37"/>
       <c r="G13" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I13" s="67">
         <v>8</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L13" s="64" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O13" s="42" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P13" s="43" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
       <c r="U13" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="37"/>
       <c r="G14" s="44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I14" s="67">
         <v>2</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M14" s="46"/>
       <c r="N14" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P14" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="47"/>
       <c r="T14" s="41"/>
       <c r="U14" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
       <c r="F15" s="37"/>
       <c r="G15" s="44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I15" s="67">
         <v>2</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M15" s="46"/>
       <c r="N15" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
       <c r="S15" s="47"/>
       <c r="T15" s="41"/>
       <c r="U15" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="37"/>
       <c r="G16" s="44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I16" s="67">
         <v>8</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L16" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M16" s="46"/>
       <c r="N16" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P16" s="49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="47"/>
       <c r="T16" s="41"/>
       <c r="U16" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="35"/>
       <c r="F17" s="37"/>
       <c r="G17" s="44" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I17" s="68">
         <v>2</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M17" s="46"/>
       <c r="N17" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="47"/>
       <c r="T17" s="41"/>
       <c r="U17" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="37"/>
       <c r="G18" s="44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I18" s="68">
         <v>8</v>
       </c>
       <c r="J18" s="46"/>
       <c r="K18" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L18" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M18" s="46"/>
       <c r="N18" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="47"/>
       <c r="T18" s="41"/>
       <c r="U18" s="33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="37"/>
       <c r="G19" s="44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I19" s="68">
         <v>8</v>
       </c>
       <c r="J19" s="46"/>
       <c r="K19" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L19" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M19" s="46"/>
       <c r="N19" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P19" s="49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="47"/>
       <c r="T19" s="41"/>
       <c r="U19" s="33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="37"/>
       <c r="G20" s="44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I20" s="68">
         <v>2</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M20" s="46"/>
       <c r="N20" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O20" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P20" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="47"/>
       <c r="T20" s="41"/>
       <c r="U20" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B21" s="33">
         <v>131</v>
@@ -2908,42 +2884,42 @@
       <c r="E21" s="35"/>
       <c r="F21" s="37"/>
       <c r="G21" s="44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I21" s="68">
         <v>8</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L21" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M21" s="46"/>
       <c r="N21" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P21" s="49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
       <c r="S21" s="47"/>
       <c r="T21" s="41"/>
       <c r="U21" s="33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B22" s="14">
         <v>126</v>
@@ -2957,402 +2933,402 @@
       <c r="E22" s="16"/>
       <c r="F22" s="18"/>
       <c r="G22" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I22" s="67">
         <v>3</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="56" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="21"/>
       <c r="T22" s="22"/>
       <c r="U22" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="18"/>
       <c r="G23" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I23" s="67">
         <v>9</v>
       </c>
       <c r="J23" s="56"/>
       <c r="K23" s="56" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="21"/>
       <c r="T23" s="22"/>
       <c r="U23" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="16"/>
       <c r="F24" s="18"/>
       <c r="G24" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I24" s="67">
         <v>3</v>
       </c>
       <c r="J24" s="57"/>
       <c r="K24" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="26"/>
       <c r="T24" s="22"/>
       <c r="U24" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="18"/>
       <c r="G25" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I25" s="67">
         <v>3</v>
       </c>
       <c r="J25" s="57"/>
       <c r="K25" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="26"/>
       <c r="T25" s="22"/>
       <c r="U25" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
       <c r="G26" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I26" s="67">
         <v>9</v>
       </c>
       <c r="J26" s="57"/>
       <c r="K26" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M26" s="25"/>
       <c r="N26" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="26"/>
       <c r="T26" s="22"/>
       <c r="U26" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
       <c r="G27" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I27" s="68">
         <v>3</v>
       </c>
       <c r="J27" s="57"/>
       <c r="K27" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M27" s="25"/>
       <c r="N27" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="26"/>
       <c r="T27" s="22"/>
       <c r="U27" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
       <c r="G28" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I28" s="68">
         <v>9</v>
       </c>
       <c r="J28" s="57"/>
       <c r="K28" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M28" s="25"/>
       <c r="N28" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="26"/>
       <c r="T28" s="22"/>
       <c r="U28" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I29" s="68">
         <v>9</v>
       </c>
       <c r="J29" s="57"/>
       <c r="K29" s="57" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="26"/>
       <c r="T29" s="22"/>
       <c r="U29" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="18"/>
       <c r="G30" s="28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I30" s="68">
         <v>3</v>
       </c>
       <c r="J30" s="58"/>
       <c r="K30" s="58" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M30" s="30"/>
       <c r="N30" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="28"/>
       <c r="S30" s="31"/>
       <c r="T30" s="22"/>
       <c r="U30" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B31" s="14">
         <v>131</v>
@@ -3362,42 +3338,42 @@
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
       <c r="G31" s="28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I31" s="68">
         <v>9</v>
       </c>
       <c r="J31" s="58"/>
       <c r="K31" s="58" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L31" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
       <c r="S31" s="31"/>
       <c r="T31" s="22"/>
       <c r="U31" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B32" s="33">
         <v>126</v>
@@ -3411,402 +3387,402 @@
       <c r="E32" s="35"/>
       <c r="F32" s="37"/>
       <c r="G32" s="36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I32" s="67">
         <v>4</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="38" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M32" s="39"/>
       <c r="N32" s="39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O32" s="38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P32" s="39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="40"/>
       <c r="T32" s="41"/>
       <c r="U32" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="35"/>
       <c r="F33" s="37"/>
       <c r="G33" s="36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I33" s="67">
         <v>10</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="38" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L33" s="64" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P33" s="43" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="40"/>
       <c r="T33" s="41"/>
       <c r="U33" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="35"/>
       <c r="F34" s="37"/>
       <c r="G34" s="44" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I34" s="67">
         <v>4</v>
       </c>
       <c r="J34" s="45"/>
       <c r="K34" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M34" s="46"/>
       <c r="N34" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O34" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P34" s="46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="47"/>
       <c r="T34" s="41"/>
       <c r="U34" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="35"/>
       <c r="F35" s="37"/>
       <c r="G35" s="44" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I35" s="67">
         <v>4</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L35" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M35" s="46"/>
       <c r="N35" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O35" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P35" s="46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
       <c r="S35" s="47"/>
       <c r="T35" s="41"/>
       <c r="U35" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="37"/>
       <c r="G36" s="44" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I36" s="67">
         <v>10</v>
       </c>
       <c r="J36" s="45"/>
       <c r="K36" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M36" s="46"/>
       <c r="N36" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O36" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
       <c r="S36" s="47"/>
       <c r="T36" s="41"/>
       <c r="U36" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35"/>
       <c r="F37" s="37"/>
       <c r="G37" s="44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I37" s="68">
         <v>4</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L37" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O37" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P37" s="46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="47"/>
       <c r="T37" s="41"/>
       <c r="U37" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="35"/>
       <c r="F38" s="37"/>
       <c r="G38" s="44" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I38" s="68">
         <v>10</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L38" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M38" s="46"/>
       <c r="N38" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O38" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P38" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
       <c r="S38" s="47"/>
       <c r="T38" s="41"/>
       <c r="U38" s="33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
       <c r="F39" s="37"/>
       <c r="G39" s="44" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I39" s="68">
         <v>10</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M39" s="46"/>
       <c r="N39" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O39" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P39" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
       <c r="S39" s="47"/>
       <c r="T39" s="41"/>
       <c r="U39" s="33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="37"/>
       <c r="G40" s="44" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I40" s="68">
         <v>4</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L40" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M40" s="46"/>
       <c r="N40" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O40" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P40" s="46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q40" s="44"/>
       <c r="R40" s="44"/>
       <c r="S40" s="47"/>
       <c r="T40" s="41"/>
       <c r="U40" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B41" s="33">
         <v>131</v>
@@ -3816,42 +3792,42 @@
       <c r="E41" s="35"/>
       <c r="F41" s="37"/>
       <c r="G41" s="44" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I41" s="68">
         <v>10</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L41" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M41" s="46"/>
       <c r="N41" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O41" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P41" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q41" s="44"/>
       <c r="R41" s="44"/>
       <c r="S41" s="47"/>
       <c r="T41" s="41"/>
       <c r="U41" s="33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B42" s="14">
         <v>126</v>
@@ -3865,402 +3841,402 @@
       <c r="E42" s="16"/>
       <c r="F42" s="18"/>
       <c r="G42" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I42" s="67">
         <v>5</v>
       </c>
       <c r="J42" s="59"/>
       <c r="K42" s="59" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
       <c r="S42" s="21"/>
       <c r="T42" s="22"/>
       <c r="U42" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I43" s="67">
         <v>11</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="59" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
       <c r="S43" s="21"/>
       <c r="T43" s="22"/>
       <c r="U43" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="16"/>
       <c r="F44" s="18"/>
       <c r="G44" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I44" s="67">
         <v>5</v>
       </c>
       <c r="J44" s="60"/>
       <c r="K44" s="60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M44" s="25"/>
       <c r="N44" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="26"/>
       <c r="T44" s="22"/>
       <c r="U44" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
       <c r="G45" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I45" s="67">
         <v>5</v>
       </c>
       <c r="J45" s="60"/>
       <c r="K45" s="60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="26"/>
       <c r="T45" s="22"/>
       <c r="U45" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
       <c r="G46" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I46" s="67">
         <v>11</v>
       </c>
       <c r="J46" s="60"/>
       <c r="K46" s="60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M46" s="25"/>
       <c r="N46" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O46" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="26"/>
       <c r="T46" s="22"/>
       <c r="U46" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="16"/>
       <c r="F47" s="18"/>
       <c r="G47" s="14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I47" s="68">
         <v>5</v>
       </c>
       <c r="J47" s="60"/>
       <c r="K47" s="60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M47" s="25"/>
       <c r="N47" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="26"/>
       <c r="T47" s="22"/>
       <c r="U47" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
       <c r="G48" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I48" s="68">
         <v>11</v>
       </c>
       <c r="J48" s="60"/>
       <c r="K48" s="60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M48" s="25"/>
       <c r="N48" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="26"/>
       <c r="T48" s="22"/>
       <c r="U48" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
       <c r="G49" s="14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I49" s="68">
         <v>11</v>
       </c>
       <c r="J49" s="60"/>
       <c r="K49" s="60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="26"/>
       <c r="T49" s="22"/>
       <c r="U49" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
       <c r="F50" s="18"/>
       <c r="G50" s="28" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I50" s="68">
         <v>5</v>
       </c>
       <c r="J50" s="61"/>
       <c r="K50" s="61" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M50" s="30"/>
       <c r="N50" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O50" s="29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P50" s="29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q50" s="28"/>
       <c r="R50" s="28"/>
       <c r="S50" s="31"/>
       <c r="T50" s="22"/>
       <c r="U50" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B51" s="14">
         <v>131</v>
@@ -4270,42 +4246,42 @@
       <c r="E51" s="16"/>
       <c r="F51" s="18"/>
       <c r="G51" s="28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I51" s="68">
         <v>11</v>
       </c>
       <c r="J51" s="61"/>
       <c r="K51" s="61" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L51" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M51" s="30"/>
       <c r="N51" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P51" s="30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q51" s="28"/>
       <c r="R51" s="28"/>
       <c r="S51" s="31"/>
       <c r="T51" s="22"/>
       <c r="U51" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B52" s="33">
         <v>126</v>
@@ -4319,402 +4295,402 @@
       <c r="E52" s="35"/>
       <c r="F52" s="37"/>
       <c r="G52" s="36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I52" s="67">
         <v>6</v>
       </c>
       <c r="J52" s="62"/>
       <c r="K52" s="62" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L52" s="43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M52" s="39"/>
       <c r="N52" s="39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O52" s="38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P52" s="39" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q52" s="36"/>
       <c r="R52" s="36"/>
       <c r="S52" s="40"/>
       <c r="T52" s="41"/>
       <c r="U52" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="35"/>
       <c r="F53" s="37"/>
       <c r="G53" s="36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H53" s="42" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I53" s="67">
         <v>12</v>
       </c>
       <c r="J53" s="62"/>
       <c r="K53" s="62" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M53" s="39"/>
       <c r="N53" s="39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O53" s="42" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P53" s="43" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
       <c r="S53" s="40"/>
       <c r="T53" s="41"/>
       <c r="U53" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="35"/>
       <c r="F54" s="37"/>
       <c r="G54" s="44" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I54" s="67">
         <v>6</v>
       </c>
       <c r="J54" s="63"/>
       <c r="K54" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L54" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M54" s="46"/>
       <c r="N54" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O54" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P54" s="46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q54" s="44"/>
       <c r="R54" s="44"/>
       <c r="S54" s="47"/>
       <c r="T54" s="41"/>
       <c r="U54" s="33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="35"/>
       <c r="F55" s="37"/>
       <c r="G55" s="44" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I55" s="67">
         <v>6</v>
       </c>
       <c r="J55" s="63"/>
       <c r="K55" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L55" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M55" s="46"/>
       <c r="N55" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O55" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P55" s="46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q55" s="44"/>
       <c r="R55" s="44"/>
       <c r="S55" s="47"/>
       <c r="T55" s="41"/>
       <c r="U55" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="35"/>
       <c r="F56" s="37"/>
       <c r="G56" s="44" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I56" s="67">
         <v>12</v>
       </c>
       <c r="J56" s="63"/>
       <c r="K56" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L56" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M56" s="46"/>
       <c r="N56" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O56" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P56" s="49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q56" s="44"/>
       <c r="R56" s="44"/>
       <c r="S56" s="47"/>
       <c r="T56" s="41"/>
       <c r="U56" s="33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="35"/>
       <c r="F57" s="37"/>
       <c r="G57" s="44" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I57" s="68">
         <v>6</v>
       </c>
       <c r="J57" s="63"/>
       <c r="K57" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L57" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M57" s="46"/>
       <c r="N57" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O57" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P57" s="46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q57" s="44"/>
       <c r="R57" s="44"/>
       <c r="S57" s="47"/>
       <c r="T57" s="41"/>
       <c r="U57" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="35"/>
       <c r="F58" s="37"/>
       <c r="G58" s="44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I58" s="68">
         <v>12</v>
       </c>
       <c r="J58" s="63"/>
       <c r="K58" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L58" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M58" s="46"/>
       <c r="N58" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O58" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P58" s="49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
       <c r="S58" s="47"/>
       <c r="T58" s="41"/>
       <c r="U58" s="33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="35"/>
       <c r="F59" s="37"/>
       <c r="G59" s="44" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I59" s="68">
         <v>12</v>
       </c>
       <c r="J59" s="63"/>
       <c r="K59" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L59" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M59" s="46"/>
       <c r="N59" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O59" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P59" s="49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="44"/>
       <c r="R59" s="44"/>
       <c r="S59" s="47"/>
       <c r="T59" s="41"/>
       <c r="U59" s="33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="35"/>
       <c r="F60" s="37"/>
       <c r="G60" s="44" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I60" s="68">
         <v>6</v>
       </c>
       <c r="J60" s="63"/>
       <c r="K60" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L60" s="49" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M60" s="46"/>
       <c r="N60" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O60" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q60" s="44"/>
       <c r="R60" s="44"/>
       <c r="S60" s="47"/>
       <c r="T60" s="41"/>
       <c r="U60" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B61" s="33">
         <v>131</v>
@@ -4724,37 +4700,37 @@
       <c r="E61" s="35"/>
       <c r="F61" s="37"/>
       <c r="G61" s="44" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I61" s="68">
         <v>12</v>
       </c>
       <c r="J61" s="63"/>
       <c r="K61" s="63" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L61" s="65" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M61" s="46"/>
       <c r="N61" s="46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O61" s="48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P61" s="49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q61" s="44"/>
       <c r="R61" s="44"/>
       <c r="S61" s="47"/>
       <c r="T61" s="41"/>
       <c r="U61" s="33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4786,151 +4762,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>128</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -1917,9 +1917,9 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2255,7 @@
       <c r="H7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="67">
         <v>1</v>
       </c>
       <c r="J7" s="24"/>
@@ -2300,7 +2300,7 @@
       <c r="H8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <v>7</v>
       </c>
       <c r="J8" s="24"/>
@@ -2345,7 +2345,7 @@
       <c r="H9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <v>7</v>
       </c>
       <c r="J9" s="24"/>
@@ -2390,7 +2390,7 @@
       <c r="H10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <v>1</v>
       </c>
       <c r="J10" s="29"/>
@@ -2435,7 +2435,7 @@
       <c r="H11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="67">
         <v>7</v>
       </c>
       <c r="J11" s="29"/>
@@ -2484,7 +2484,7 @@
       <c r="H12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="68">
         <v>2</v>
       </c>
       <c r="J12" s="39"/>
@@ -2529,7 +2529,7 @@
       <c r="H13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="68">
         <v>8</v>
       </c>
       <c r="J13" s="39"/>
@@ -2574,7 +2574,7 @@
       <c r="H14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="68">
         <v>2</v>
       </c>
       <c r="J14" s="46"/>
@@ -2619,7 +2619,7 @@
       <c r="H15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="68">
         <v>2</v>
       </c>
       <c r="J15" s="46"/>
@@ -2664,7 +2664,7 @@
       <c r="H16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="68">
         <v>8</v>
       </c>
       <c r="J16" s="46"/>
@@ -3163,7 +3163,7 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="67">
         <v>3</v>
       </c>
       <c r="J27" s="57"/>
@@ -3208,7 +3208,7 @@
       <c r="H28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="67">
         <v>9</v>
       </c>
       <c r="J28" s="57"/>
@@ -3253,7 +3253,7 @@
       <c r="H29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="67">
         <v>9</v>
       </c>
       <c r="J29" s="57"/>
@@ -3298,7 +3298,7 @@
       <c r="H30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="67">
         <v>3</v>
       </c>
       <c r="J30" s="58"/>
@@ -3343,7 +3343,7 @@
       <c r="H31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="67">
         <v>9</v>
       </c>
       <c r="J31" s="58"/>
@@ -3392,7 +3392,7 @@
       <c r="H32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="68">
         <v>4</v>
       </c>
       <c r="J32" s="38"/>
@@ -3437,7 +3437,7 @@
       <c r="H33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="68">
         <v>10</v>
       </c>
       <c r="J33" s="38"/>
@@ -3482,7 +3482,7 @@
       <c r="H34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="68">
         <v>4</v>
       </c>
       <c r="J34" s="45"/>
@@ -3527,7 +3527,7 @@
       <c r="H35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="68">
         <v>4</v>
       </c>
       <c r="J35" s="45"/>
@@ -3572,7 +3572,7 @@
       <c r="H36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="68">
         <v>10</v>
       </c>
       <c r="J36" s="45"/>
@@ -4071,7 +4071,7 @@
       <c r="H47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="68">
+      <c r="I47" s="67">
         <v>5</v>
       </c>
       <c r="J47" s="60"/>
@@ -4116,7 +4116,7 @@
       <c r="H48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="68">
+      <c r="I48" s="67">
         <v>11</v>
       </c>
       <c r="J48" s="60"/>
@@ -4161,7 +4161,7 @@
       <c r="H49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="68">
+      <c r="I49" s="67">
         <v>11</v>
       </c>
       <c r="J49" s="60"/>
@@ -4206,7 +4206,7 @@
       <c r="H50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="68">
+      <c r="I50" s="67">
         <v>5</v>
       </c>
       <c r="J50" s="61"/>
@@ -4251,7 +4251,7 @@
       <c r="H51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="68">
+      <c r="I51" s="67">
         <v>11</v>
       </c>
       <c r="J51" s="61"/>
@@ -4300,7 +4300,7 @@
       <c r="H52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="68">
         <v>6</v>
       </c>
       <c r="J52" s="62"/>
@@ -4345,7 +4345,7 @@
       <c r="H53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="68">
         <v>12</v>
       </c>
       <c r="J53" s="62"/>
@@ -4390,7 +4390,7 @@
       <c r="H54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="68">
         <v>6</v>
       </c>
       <c r="J54" s="63"/>
@@ -4435,7 +4435,7 @@
       <c r="H55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="68">
         <v>6</v>
       </c>
       <c r="J55" s="63"/>
@@ -4480,7 +4480,7 @@
       <c r="H56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="68">
         <v>12</v>
       </c>
       <c r="J56" s="63"/>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ_dev\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$U$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AB$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -168,7 +168,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samples will be included in analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samples will be included in analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +299,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Another group of contrasts for uses in statistical modelings 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
   <si>
     <t>Description</t>
   </si>
@@ -702,6 +742,12 @@
   </si>
   <si>
     <t>W16</t>
+  </si>
+  <si>
+    <t>Term_3</t>
+  </si>
+  <si>
+    <t>Select_sub</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1445,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1581,6 +1627,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1914,12 +1975,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,21 +1991,25 @@
     <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.140625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -1966,50 +2031,71 @@
       <c r="G1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="O1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="W1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="Y1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="AA1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="AB1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -2027,38 +2113,51 @@
       <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="N2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="67">
+      <c r="O2" s="67">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="R2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -2072,38 +2171,51 @@
       <c r="G3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="67">
+      <c r="O3" s="67">
         <v>7</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="R3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="U3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="14" t="s">
+      <c r="W3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2117,38 +2229,53 @@
       <c r="G4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="67">
+      <c r="O4" s="67">
         <v>1</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25" t="s">
+      <c r="R4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="14" t="s">
+      <c r="W4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2162,38 +2289,51 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="67">
+      <c r="O5" s="67">
         <v>1</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25" t="s">
+      <c r="R5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="U5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="V5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="14" t="s">
+      <c r="W5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
@@ -2207,38 +2347,51 @@
       <c r="G6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="71"/>
+      <c r="I6" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="67">
+      <c r="O6" s="67">
         <v>7</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24" t="s">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
+      <c r="R6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="U6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="V6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="14" t="s">
+      <c r="W6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -2252,38 +2405,51 @@
       <c r="G7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="71"/>
+      <c r="I7" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="71"/>
+      <c r="N7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="67">
+      <c r="O7" s="67">
         <v>1</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="s">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="R7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="U7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="14" t="s">
+      <c r="W7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2297,38 +2463,51 @@
       <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="71"/>
+      <c r="I8" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="67">
+      <c r="O8" s="67">
         <v>7</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24" t="s">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
+      <c r="R8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="U8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="V8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="14" t="s">
+      <c r="W8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2342,38 +2521,51 @@
       <c r="G9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="67">
+      <c r="O9" s="67">
         <v>7</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24" t="s">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25" t="s">
+      <c r="R9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="U9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="V9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="14" t="s">
+      <c r="W9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
@@ -2387,38 +2579,51 @@
       <c r="G10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="71"/>
+      <c r="N10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="67">
+      <c r="O10" s="67">
         <v>1</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="R10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="U10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="V10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="14" t="s">
+      <c r="W10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
@@ -2432,38 +2637,51 @@
       <c r="G11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="67">
+      <c r="O11" s="67">
         <v>7</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29" t="s">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30" t="s">
+      <c r="R11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="U11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="V11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="14" t="s">
+      <c r="W11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>46</v>
       </c>
@@ -2481,38 +2699,51 @@
       <c r="G12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="72"/>
+      <c r="N12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="68">
+      <c r="O12" s="68">
         <v>2</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39" t="s">
+      <c r="R12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="U12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="V12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="33" t="s">
+      <c r="W12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
@@ -2526,38 +2757,51 @@
       <c r="G13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="72"/>
+      <c r="I13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="68">
+      <c r="O13" s="68">
         <v>8</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39" t="s">
+      <c r="R13" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="U13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="V13" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="33" t="s">
+      <c r="W13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
@@ -2571,38 +2815,53 @@
       <c r="G14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="73"/>
+      <c r="N14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="68">
+      <c r="O14" s="68">
         <v>2</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46" t="s">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46" t="s">
+      <c r="R14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="U14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="V14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="33" t="s">
+      <c r="W14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>48</v>
       </c>
@@ -2616,38 +2875,51 @@
       <c r="G15" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="73"/>
+      <c r="I15" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="73"/>
+      <c r="N15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="68">
+      <c r="O15" s="68">
         <v>2</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46" t="s">
+      <c r="R15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="U15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="V15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="33" t="s">
+      <c r="W15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>57</v>
       </c>
@@ -2661,38 +2933,51 @@
       <c r="G16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="73"/>
+      <c r="I16" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="68">
+      <c r="O16" s="68">
         <v>8</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46" t="s">
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46" t="s">
+      <c r="R16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="48" t="s">
+      <c r="U16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="49" t="s">
+      <c r="V16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="33" t="s">
+      <c r="W16" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>49</v>
       </c>
@@ -2706,38 +2991,51 @@
       <c r="G17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="73"/>
+      <c r="N17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="68">
+      <c r="O17" s="68">
         <v>2</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46" t="s">
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46" t="s">
+      <c r="R17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="U17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="46" t="s">
+      <c r="V17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="33" t="s">
+      <c r="W17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
@@ -2751,38 +3049,51 @@
       <c r="G18" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="73"/>
+      <c r="I18" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="68">
+      <c r="O18" s="68">
         <v>8</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46" t="s">
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46" t="s">
+      <c r="R18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="48" t="s">
+      <c r="U18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="V18" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="33" t="s">
+      <c r="W18" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>59</v>
       </c>
@@ -2796,38 +3107,51 @@
       <c r="G19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="68">
+      <c r="O19" s="68">
         <v>8</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46" t="s">
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46" t="s">
+      <c r="R19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="48" t="s">
+      <c r="U19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="49" t="s">
+      <c r="V19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="33" t="s">
+      <c r="W19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>50</v>
       </c>
@@ -2841,38 +3165,51 @@
       <c r="G20" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="73"/>
+      <c r="N20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="68">
+      <c r="O20" s="68">
         <v>2</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46" t="s">
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46" t="s">
+      <c r="R20" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="U20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="46" t="s">
+      <c r="V20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="33" t="s">
+      <c r="W20" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -2886,38 +3223,51 @@
       <c r="G21" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="73"/>
+      <c r="I21" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="68">
+      <c r="O21" s="68">
         <v>8</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46" t="s">
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="L21" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46" t="s">
+      <c r="R21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="48" t="s">
+      <c r="U21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="V21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="33" t="s">
+      <c r="W21" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -2935,38 +3285,51 @@
       <c r="G22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="70"/>
+      <c r="N22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="67">
+      <c r="O22" s="67">
         <v>3</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56" t="s">
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20" t="s">
+      <c r="R22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="U22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="V22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="14" t="s">
+      <c r="W22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
@@ -2980,38 +3343,51 @@
       <c r="G23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="67">
+      <c r="O23" s="67">
         <v>9</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56" t="s">
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20" t="s">
+      <c r="R23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="U23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="V23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="14" t="s">
+      <c r="W23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
@@ -3025,38 +3401,51 @@
       <c r="G24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="71"/>
+      <c r="N24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="67">
+      <c r="O24" s="67">
         <v>3</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57" t="s">
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="R24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="U24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="V24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="14" t="s">
+      <c r="W24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
@@ -3070,38 +3459,51 @@
       <c r="G25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="71"/>
+      <c r="N25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="67">
+      <c r="O25" s="67">
         <v>3</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57" t="s">
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
+      <c r="R25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="U25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="V25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="14" t="s">
+      <c r="W25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
@@ -3115,38 +3517,51 @@
       <c r="G26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="67">
+      <c r="O26" s="67">
         <v>9</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57" t="s">
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25" t="s">
+      <c r="R26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="U26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="V26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="14" t="s">
+      <c r="W26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
@@ -3160,38 +3575,51 @@
       <c r="G27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="71"/>
+      <c r="N27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="67">
+      <c r="O27" s="67">
         <v>3</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57" t="s">
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25" t="s">
+      <c r="R27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="U27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="24" t="s">
+      <c r="V27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="14" t="s">
+      <c r="W27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
@@ -3205,38 +3633,51 @@
       <c r="G28" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="67">
+      <c r="O28" s="67">
         <v>9</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57" t="s">
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25" t="s">
+      <c r="R28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="U28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="V28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="14" t="s">
+      <c r="W28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>104</v>
       </c>
@@ -3250,38 +3691,51 @@
       <c r="G29" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="67">
+      <c r="O29" s="67">
         <v>9</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57" t="s">
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25" t="s">
+      <c r="R29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="U29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="25" t="s">
+      <c r="V29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="14" t="s">
+      <c r="W29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>105</v>
       </c>
@@ -3295,38 +3749,51 @@
       <c r="G30" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="71"/>
+      <c r="N30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="67">
+      <c r="O30" s="67">
         <v>3</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58" t="s">
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="L30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30" t="s">
+      <c r="R30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="29" t="s">
+      <c r="U30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="P30" s="29" t="s">
+      <c r="V30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="14" t="s">
+      <c r="W30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3340,38 +3807,51 @@
       <c r="G31" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="67">
+      <c r="O31" s="67">
         <v>9</v>
       </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58" t="s">
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30" t="s">
+      <c r="R31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="32" t="s">
+      <c r="U31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="30" t="s">
+      <c r="V31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="14" t="s">
+      <c r="W31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>107</v>
       </c>
@@ -3389,38 +3869,51 @@
       <c r="G32" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="72"/>
+      <c r="N32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="68">
+      <c r="O32" s="68">
         <v>4</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38" t="s">
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39" t="s">
+      <c r="R32" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="U32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="V32" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="33" t="s">
+      <c r="W32" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>109</v>
       </c>
@@ -3434,38 +3927,51 @@
       <c r="G33" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="68">
+      <c r="O33" s="68">
         <v>10</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38" t="s">
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="L33" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39" t="s">
+      <c r="R33" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O33" s="42" t="s">
+      <c r="U33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="V33" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="33" t="s">
+      <c r="W33" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
@@ -3479,38 +3985,51 @@
       <c r="G34" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="73"/>
+      <c r="N34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="68">
+      <c r="O34" s="68">
         <v>4</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45" t="s">
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46" t="s">
+      <c r="R34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="U34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P34" s="46" t="s">
+      <c r="V34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="33" t="s">
+      <c r="W34" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
@@ -3524,38 +4043,51 @@
       <c r="G35" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="73"/>
+      <c r="N35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="68">
+      <c r="O35" s="68">
         <v>4</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45" t="s">
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46" t="s">
+      <c r="R35" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="U35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="46" t="s">
+      <c r="V35" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="33" t="s">
+      <c r="W35" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
@@ -3569,38 +4101,51 @@
       <c r="G36" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="68">
+      <c r="O36" s="68">
         <v>10</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46" t="s">
+      <c r="R36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="48" t="s">
+      <c r="U36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P36" s="49" t="s">
+      <c r="V36" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="33" t="s">
+      <c r="W36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
@@ -3614,38 +4159,51 @@
       <c r="G37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="73"/>
+      <c r="N37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="68">
+      <c r="O37" s="68">
         <v>4</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45" t="s">
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46" t="s">
+      <c r="R37" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="U37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="46" t="s">
+      <c r="V37" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="33" t="s">
+      <c r="W37" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
@@ -3659,38 +4217,51 @@
       <c r="G38" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="68">
+      <c r="O38" s="68">
         <v>10</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45" t="s">
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L38" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46" t="s">
+      <c r="R38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O38" s="48" t="s">
+      <c r="U38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="49" t="s">
+      <c r="V38" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="33" t="s">
+      <c r="W38" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
@@ -3704,38 +4275,51 @@
       <c r="G39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="68">
+      <c r="O39" s="68">
         <v>10</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45" t="s">
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46" t="s">
+      <c r="R39" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O39" s="48" t="s">
+      <c r="U39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P39" s="49" t="s">
+      <c r="V39" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="33" t="s">
+      <c r="W39" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
@@ -3749,38 +4333,51 @@
       <c r="G40" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="73"/>
+      <c r="N40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="68">
+      <c r="O40" s="68">
         <v>4</v>
       </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45" t="s">
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46" t="s">
+      <c r="R40" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="U40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="V40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="33" t="s">
+      <c r="W40" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
@@ -3794,38 +4391,51 @@
       <c r="G41" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="68">
+      <c r="O41" s="68">
         <v>10</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45" t="s">
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46" t="s">
+      <c r="R41" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O41" s="48" t="s">
+      <c r="U41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P41" s="49" t="s">
+      <c r="V41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="33" t="s">
+      <c r="W41" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -3843,38 +4453,51 @@
       <c r="G42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L42" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="70"/>
+      <c r="N42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="67">
+      <c r="O42" s="67">
         <v>5</v>
       </c>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59" t="s">
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="L42" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20" t="s">
+      <c r="R42" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="U42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P42" s="19" t="s">
+      <c r="V42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="14" t="s">
+      <c r="W42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -3888,38 +4511,51 @@
       <c r="G43" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="67">
+      <c r="O43" s="67">
         <v>11</v>
       </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59" t="s">
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="L43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20" t="s">
+      <c r="R43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="U43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="P43" s="20" t="s">
+      <c r="V43" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="14" t="s">
+      <c r="W43" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
@@ -3933,38 +4569,51 @@
       <c r="G44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" s="71"/>
+      <c r="N44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="67">
+      <c r="O44" s="67">
         <v>5</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60" t="s">
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25" t="s">
+      <c r="R44" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="U44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="V44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="14" t="s">
+      <c r="W44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
@@ -3978,38 +4627,51 @@
       <c r="G45" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="71"/>
+      <c r="N45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="67">
+      <c r="O45" s="67">
         <v>5</v>
       </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60" t="s">
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L45" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25" t="s">
+      <c r="R45" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="24" t="s">
+      <c r="U45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P45" s="24" t="s">
+      <c r="V45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="14" t="s">
+      <c r="W45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
@@ -4023,38 +4685,51 @@
       <c r="G46" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="67">
+      <c r="O46" s="67">
         <v>11</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60" t="s">
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L46" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25" t="s">
+      <c r="R46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="U46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="25" t="s">
+      <c r="V46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="14" t="s">
+      <c r="W46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
@@ -4068,38 +4743,51 @@
       <c r="G47" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="71"/>
+      <c r="N47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="67">
+      <c r="O47" s="67">
         <v>5</v>
       </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60" t="s">
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25" t="s">
+      <c r="R47" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="24" t="s">
+      <c r="U47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="V47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="14" t="s">
+      <c r="W47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
@@ -4113,38 +4801,51 @@
       <c r="G48" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="67">
+      <c r="O48" s="67">
         <v>11</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60" t="s">
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25" t="s">
+      <c r="R48" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O48" s="27" t="s">
+      <c r="U48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P48" s="25" t="s">
+      <c r="V48" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="14" t="s">
+      <c r="W48" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>78</v>
       </c>
@@ -4158,38 +4859,51 @@
       <c r="G49" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="67">
+      <c r="O49" s="67">
         <v>11</v>
       </c>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60" t="s">
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25" t="s">
+      <c r="R49" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="27" t="s">
+      <c r="U49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P49" s="25" t="s">
+      <c r="V49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="14" t="s">
+      <c r="W49" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>79</v>
       </c>
@@ -4203,38 +4917,51 @@
       <c r="G50" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="71"/>
+      <c r="N50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="67">
+      <c r="O50" s="67">
         <v>5</v>
       </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61" t="s">
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30" t="s">
+      <c r="R50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O50" s="29" t="s">
+      <c r="U50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P50" s="29" t="s">
+      <c r="V50" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="14" t="s">
+      <c r="W50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>80</v>
       </c>
@@ -4248,38 +4975,51 @@
       <c r="G51" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="67">
+      <c r="O51" s="67">
         <v>11</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61" t="s">
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30" t="s">
+      <c r="R51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O51" s="32" t="s">
+      <c r="U51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P51" s="30" t="s">
+      <c r="V51" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="14" t="s">
+      <c r="W51" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>81</v>
       </c>
@@ -4297,38 +5037,51 @@
       <c r="G52" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="72"/>
+      <c r="N52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="68">
+      <c r="O52" s="68">
         <v>6</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62" t="s">
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39" t="s">
+      <c r="R52" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="38" t="s">
+      <c r="U52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="V52" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="33" t="s">
+      <c r="W52" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>83</v>
       </c>
@@ -4342,38 +5095,51 @@
       <c r="G53" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="68">
+      <c r="O53" s="68">
         <v>12</v>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62" t="s">
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39" t="s">
+      <c r="R53" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="42" t="s">
+      <c r="U53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="43" t="s">
+      <c r="V53" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="33" t="s">
+      <c r="W53" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>85</v>
       </c>
@@ -4387,38 +5153,51 @@
       <c r="G54" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L54" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="73"/>
+      <c r="N54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="68">
+      <c r="O54" s="68">
         <v>6</v>
       </c>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63" t="s">
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46" t="s">
+      <c r="R54" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="45" t="s">
+      <c r="U54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P54" s="46" t="s">
+      <c r="V54" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="33" t="s">
+      <c r="W54" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>86</v>
       </c>
@@ -4432,38 +5211,51 @@
       <c r="G55" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="45" t="s">
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55" s="73"/>
+      <c r="N55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="68">
+      <c r="O55" s="68">
         <v>6</v>
       </c>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63" t="s">
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46" t="s">
+      <c r="R55" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="45" t="s">
+      <c r="U55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="46" t="s">
+      <c r="V55" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="33" t="s">
+      <c r="W55" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>87</v>
       </c>
@@ -4477,38 +5269,51 @@
       <c r="G56" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="68">
+      <c r="O56" s="68">
         <v>12</v>
       </c>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63" t="s">
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L56" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46" t="s">
+      <c r="R56" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="48" t="s">
+      <c r="U56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="49" t="s">
+      <c r="V56" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="33" t="s">
+      <c r="W56" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>88</v>
       </c>
@@ -4522,38 +5327,51 @@
       <c r="G57" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="45" t="s">
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57" s="73"/>
+      <c r="N57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="68">
+      <c r="O57" s="68">
         <v>6</v>
       </c>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63" t="s">
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L57" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46" t="s">
+      <c r="R57" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="45" t="s">
+      <c r="U57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="46" t="s">
+      <c r="V57" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="33" t="s">
+      <c r="W57" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>89</v>
       </c>
@@ -4567,38 +5385,51 @@
       <c r="G58" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="68">
+      <c r="O58" s="68">
         <v>12</v>
       </c>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63" t="s">
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L58" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46" t="s">
+      <c r="R58" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O58" s="48" t="s">
+      <c r="U58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="49" t="s">
+      <c r="V58" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="33" t="s">
+      <c r="W58" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>90</v>
       </c>
@@ -4612,38 +5443,51 @@
       <c r="G59" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I59" s="68">
+      <c r="O59" s="68">
         <v>12</v>
       </c>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63" t="s">
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46" t="s">
+      <c r="R59" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="48" t="s">
+      <c r="U59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="49" t="s">
+      <c r="V59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="33" t="s">
+      <c r="W59" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="41"/>
+      <c r="AB59" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>91</v>
       </c>
@@ -4657,38 +5501,51 @@
       <c r="G60" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M60" s="73"/>
+      <c r="N60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I60" s="68">
+      <c r="O60" s="68">
         <v>6</v>
       </c>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63" t="s">
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46" t="s">
+      <c r="R60" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="45" t="s">
+      <c r="U60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P60" s="46" t="s">
+      <c r="V60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="33" t="s">
+      <c r="W60" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -4702,34 +5559,47 @@
       <c r="G61" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H61" s="48" t="s">
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I61" s="68">
+      <c r="O61" s="68">
         <v>12</v>
       </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63" t="s">
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="L61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46" t="s">
+      <c r="R61" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O61" s="48" t="s">
+      <c r="U61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P61" s="49" t="s">
+      <c r="V61" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="33" t="s">
+      <c r="W61" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ_dev\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AB$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AC$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -168,19 +168,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Samples will be included in analysis</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -203,7 +190,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Optional: a priori knowledge of sample groups</t>
+          <t>Samples will be included in analysis</t>
         </r>
       </text>
     </comment>
@@ -216,11 +203,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Optional: a priori knowledge of sample groups</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Optional: the order of sample groups in analysis such as NMF</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,20 +281,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">A group of contrasts for uses in statistical modelings 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Another group of contrasts for uses in statistical modelings 
 </t>
         </r>
       </text>
@@ -322,7 +308,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Duplicated samples for corrections in statistical significance</t>
+          <t xml:space="preserve">Another group of contrasts for uses in statistical modelings 
+</t>
         </r>
       </text>
     </comment>
@@ -335,7 +322,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Benchmark samples for use in analysis such as heat map visualization</t>
+          <t>Duplicated samples for corrections in statistical significance</t>
         </r>
       </text>
     </comment>
@@ -348,11 +335,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Benchmark samples for use in analysis such as heat map visualization</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Exemplary metadata</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="127">
   <si>
     <t>Description</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>Select_sub</t>
+  </si>
+  <si>
+    <t>BI_1</t>
   </si>
 </sst>
 </file>
@@ -1975,12 +1978,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,24 +1995,24 @@
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.140625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -2038,64 +2041,67 @@
         <v>119</v>
       </c>
       <c r="J1" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="L1" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="69" t="s">
-        <v>122</v>
-      </c>
       <c r="M1" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="P1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="Y1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Z1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="AA1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AB1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="52" t="s">
+      <c r="AC1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -2117,47 +2123,50 @@
       <c r="I2" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="70"/>
+      <c r="J2" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K2" s="70"/>
-      <c r="L2" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="19" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="70"/>
+      <c r="O2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="67">
+      <c r="P2" s="67">
         <v>1</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="S2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="17"/>
+      <c r="X2" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="14" t="s">
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -2175,47 +2184,50 @@
       <c r="I3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K3" s="70"/>
       <c r="L3" s="70"/>
-      <c r="M3" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="67">
+      <c r="P3" s="67">
         <v>7</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20" t="s">
+      <c r="S3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="W3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="17"/>
+      <c r="X3" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="14" t="s">
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2235,47 +2247,50 @@
       <c r="I4" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K4" s="70"/>
-      <c r="L4" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="24" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="71"/>
+      <c r="O4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="67">
+      <c r="P4" s="67">
         <v>1</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25" t="s">
+      <c r="S4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="W4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X4" s="14"/>
+      <c r="X4" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="14" t="s">
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2293,47 +2308,50 @@
       <c r="I5" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K5" s="70"/>
-      <c r="L5" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="24" t="s">
+      <c r="L5" s="70"/>
+      <c r="M5" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="67">
+      <c r="P5" s="67">
         <v>1</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25" t="s">
+      <c r="S5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="V5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="W5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="14"/>
+      <c r="X5" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y5" s="14"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="14" t="s">
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
@@ -2351,47 +2369,50 @@
       <c r="I6" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="67">
+      <c r="P6" s="67">
         <v>7</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25" t="s">
+      <c r="S6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="V6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="W6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X6" s="14"/>
+      <c r="X6" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y6" s="14"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="14" t="s">
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -2409,47 +2430,50 @@
       <c r="I7" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K7" s="70"/>
-      <c r="L7" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="24" t="s">
+      <c r="L7" s="70"/>
+      <c r="M7" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="71"/>
+      <c r="O7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="67">
+      <c r="P7" s="67">
         <v>1</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="W7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="14"/>
+      <c r="X7" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="14" t="s">
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2467,47 +2491,50 @@
       <c r="I8" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="70"/>
+      <c r="J8" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K8" s="70"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="27" t="s">
+      <c r="L8" s="70"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="67">
+      <c r="P8" s="67">
         <v>7</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25" t="s">
+      <c r="S8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="V8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="25" t="s">
+      <c r="W8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X8" s="14"/>
+      <c r="X8" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="14" t="s">
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2525,47 +2552,50 @@
       <c r="I9" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" s="27" t="s">
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="67">
+      <c r="P9" s="67">
         <v>7</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25" t="s">
+      <c r="S9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="V9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="W9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X9" s="14"/>
+      <c r="X9" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="14" t="s">
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
@@ -2583,47 +2613,50 @@
       <c r="I10" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K10" s="70"/>
-      <c r="L10" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="29" t="s">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="67">
+      <c r="P10" s="67">
         <v>1</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="R10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30" t="s">
+      <c r="S10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="29" t="s">
+      <c r="V10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="29" t="s">
+      <c r="W10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="X10" s="28"/>
+      <c r="X10" s="29" t="s">
+        <v>122</v>
+      </c>
       <c r="Y10" s="28"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="14" t="s">
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
@@ -2641,47 +2674,50 @@
       <c r="I11" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="70" t="s">
+        <v>119</v>
+      </c>
       <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="32" t="s">
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="67">
+      <c r="P11" s="67">
         <v>7</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="R11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30" t="s">
+      <c r="S11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="V11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="W11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" s="28"/>
+      <c r="X11" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="Y11" s="28"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="14" t="s">
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>46</v>
       </c>
@@ -2705,45 +2741,46 @@
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
-      <c r="L12" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="38" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="72"/>
+      <c r="O12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="68">
+      <c r="P12" s="68">
         <v>2</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39" t="s">
+      <c r="S12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="V12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="39" t="s">
+      <c r="W12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" s="36"/>
+      <c r="X12" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="Y12" s="36"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="33" t="s">
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
@@ -2764,44 +2801,45 @@
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
-      <c r="M13" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="42" t="s">
+      <c r="M13" s="72"/>
+      <c r="N13" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="68">
+      <c r="P13" s="68">
         <v>8</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39" t="s">
+      <c r="S13" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="42" t="s">
+      <c r="V13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="43" t="s">
+      <c r="W13" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" s="36"/>
+      <c r="X13" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="Y13" s="36"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="33" t="s">
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
@@ -2823,45 +2861,46 @@
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
-      <c r="L14" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="45" t="s">
+      <c r="L14" s="72"/>
+      <c r="M14" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="73"/>
+      <c r="O14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="68">
+      <c r="P14" s="68">
         <v>2</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R14" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46" t="s">
+      <c r="S14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="45" t="s">
+      <c r="V14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="46" t="s">
+      <c r="W14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X14" s="44"/>
+      <c r="X14" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y14" s="44"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="33" t="s">
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>48</v>
       </c>
@@ -2881,45 +2920,46 @@
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
-      <c r="L15" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="73"/>
-      <c r="N15" s="45" t="s">
+      <c r="L15" s="72"/>
+      <c r="M15" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="73"/>
+      <c r="O15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="68">
+      <c r="P15" s="68">
         <v>2</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46" t="s">
+      <c r="S15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="45" t="s">
+      <c r="V15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="46" t="s">
+      <c r="W15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W15" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" s="44"/>
+      <c r="X15" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y15" s="44"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="33" t="s">
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>57</v>
       </c>
@@ -2939,45 +2979,46 @@
       </c>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="48" t="s">
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="68">
+      <c r="P16" s="68">
         <v>8</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46" t="s">
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R16" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46" t="s">
+      <c r="S16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="48" t="s">
+      <c r="V16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V16" s="49" t="s">
+      <c r="W16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W16" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y16" s="44"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="33" t="s">
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>49</v>
       </c>
@@ -2997,45 +3038,46 @@
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="45" t="s">
+      <c r="L17" s="72"/>
+      <c r="M17" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="73"/>
+      <c r="O17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="68">
+      <c r="P17" s="68">
         <v>2</v>
       </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46" t="s">
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R17" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46" t="s">
+      <c r="S17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="45" t="s">
+      <c r="V17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="46" t="s">
+      <c r="W17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W17" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X17" s="44"/>
+      <c r="X17" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y17" s="44"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="33" t="s">
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
@@ -3055,45 +3097,46 @@
       </c>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" s="48" t="s">
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="68">
+      <c r="P18" s="68">
         <v>8</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46" t="s">
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46" t="s">
+      <c r="S18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="48" t="s">
+      <c r="V18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V18" s="49" t="s">
+      <c r="W18" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W18" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X18" s="44"/>
+      <c r="X18" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y18" s="44"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="33" t="s">
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>59</v>
       </c>
@@ -3113,45 +3156,46 @@
       </c>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="48" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="68">
+      <c r="P19" s="68">
         <v>8</v>
       </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46" t="s">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R19" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46" t="s">
+      <c r="S19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="48" t="s">
+      <c r="V19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V19" s="49" t="s">
+      <c r="W19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X19" s="44"/>
+      <c r="X19" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y19" s="44"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="33" t="s">
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>50</v>
       </c>
@@ -3171,45 +3215,46 @@
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
-      <c r="L20" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="73"/>
-      <c r="N20" s="45" t="s">
+      <c r="L20" s="72"/>
+      <c r="M20" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="73"/>
+      <c r="O20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="68">
+      <c r="P20" s="68">
         <v>2</v>
       </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46" t="s">
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46" t="s">
+      <c r="S20" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="45" t="s">
+      <c r="V20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="46" t="s">
+      <c r="W20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="W20" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X20" s="44"/>
+      <c r="X20" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y20" s="44"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="33" t="s">
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -3229,45 +3274,46 @@
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N21" s="48" t="s">
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="68">
+      <c r="P21" s="68">
         <v>8</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46" t="s">
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R21" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46" t="s">
+      <c r="S21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="48" t="s">
+      <c r="V21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="V21" s="49" t="s">
+      <c r="W21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X21" s="44"/>
+      <c r="X21" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y21" s="44"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="33" t="s">
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -3287,49 +3333,50 @@
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="70"/>
+      <c r="K22" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="19" t="s">
+      <c r="L22" s="70"/>
+      <c r="M22" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="70"/>
+      <c r="O22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O22" s="67">
+      <c r="P22" s="67">
         <v>3</v>
       </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20" t="s">
+      <c r="S22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="V22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="19" t="s">
+      <c r="W22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="W22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X22" s="17"/>
+      <c r="X22" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="14" t="s">
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
@@ -3345,49 +3392,50 @@
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="70"/>
+      <c r="K23" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="70"/>
       <c r="L23" s="70"/>
-      <c r="M23" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="67">
+      <c r="P23" s="67">
         <v>9</v>
       </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56" t="s">
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="R23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20" t="s">
+      <c r="S23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="V23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="W23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="W23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X23" s="17"/>
+      <c r="X23" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="14" t="s">
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
@@ -3403,49 +3451,50 @@
       </c>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="71"/>
+      <c r="K24" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="71"/>
-      <c r="N24" s="24" t="s">
+      <c r="L24" s="70"/>
+      <c r="M24" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="71"/>
+      <c r="O24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="67">
+      <c r="P24" s="67">
         <v>3</v>
       </c>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25" t="s">
+      <c r="S24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="V24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="V24" s="24" t="s">
+      <c r="W24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W24" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X24" s="14"/>
+      <c r="X24" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="14" t="s">
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
@@ -3461,49 +3510,50 @@
       </c>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="71"/>
+      <c r="K25" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="71"/>
-      <c r="N25" s="24" t="s">
+      <c r="L25" s="70"/>
+      <c r="M25" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="71"/>
+      <c r="O25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="67">
+      <c r="P25" s="67">
         <v>3</v>
       </c>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57" t="s">
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R25" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25" t="s">
+      <c r="S25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="24" t="s">
+      <c r="V25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="V25" s="24" t="s">
+      <c r="W25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W25" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X25" s="14"/>
+      <c r="X25" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="14" t="s">
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
@@ -3519,49 +3569,50 @@
       </c>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="71"/>
+      <c r="K26" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="27" t="s">
+      <c r="L26" s="70"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="67">
+      <c r="P26" s="67">
         <v>9</v>
       </c>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57" t="s">
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25" t="s">
+      <c r="S26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="27" t="s">
+      <c r="V26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="V26" s="25" t="s">
+      <c r="W26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="W26" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X26" s="14"/>
+      <c r="X26" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="14" t="s">
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
@@ -3577,49 +3628,50 @@
       </c>
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="71"/>
+      <c r="K27" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="24" t="s">
+      <c r="L27" s="70"/>
+      <c r="M27" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N27" s="71"/>
+      <c r="O27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O27" s="67">
+      <c r="P27" s="67">
         <v>3</v>
       </c>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57" t="s">
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25" t="s">
+      <c r="S27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="V27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="V27" s="24" t="s">
+      <c r="W27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="W27" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X27" s="14"/>
+      <c r="X27" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="14" t="s">
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
@@ -3635,49 +3687,50 @@
       </c>
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="71"/>
+      <c r="K28" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N28" s="27" t="s">
+      <c r="L28" s="70"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="67">
+      <c r="P28" s="67">
         <v>9</v>
       </c>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57" t="s">
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25" t="s">
+      <c r="S28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U28" s="27" t="s">
+      <c r="V28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="V28" s="25" t="s">
+      <c r="W28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="W28" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X28" s="14"/>
+      <c r="X28" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y28" s="14"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="14" t="s">
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>104</v>
       </c>
@@ -3693,49 +3746,50 @@
       </c>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
-      <c r="J29" s="70" t="s">
+      <c r="J29" s="71"/>
+      <c r="K29" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N29" s="27" t="s">
+      <c r="L29" s="70"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O29" s="67">
+      <c r="P29" s="67">
         <v>9</v>
       </c>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57" t="s">
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25" t="s">
+      <c r="S29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="27" t="s">
+      <c r="V29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="V29" s="25" t="s">
+      <c r="W29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="W29" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X29" s="14"/>
+      <c r="X29" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="14" t="s">
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>105</v>
       </c>
@@ -3751,49 +3805,50 @@
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="71"/>
+      <c r="K30" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="71"/>
-      <c r="N30" s="29" t="s">
+      <c r="L30" s="70"/>
+      <c r="M30" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="71"/>
+      <c r="O30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="O30" s="67">
+      <c r="P30" s="67">
         <v>3</v>
       </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58" t="s">
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="R30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30" t="s">
+      <c r="S30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U30" s="29" t="s">
+      <c r="V30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="V30" s="29" t="s">
+      <c r="W30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="W30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="X30" s="28"/>
+      <c r="X30" s="29" t="s">
+        <v>122</v>
+      </c>
       <c r="Y30" s="28"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="14" t="s">
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3809,49 +3864,50 @@
       </c>
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="71"/>
+      <c r="K31" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N31" s="32" t="s">
+      <c r="L31" s="70"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="67">
+      <c r="P31" s="67">
         <v>9</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58" t="s">
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="R31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30" t="s">
+      <c r="S31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="32" t="s">
+      <c r="V31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="V31" s="30" t="s">
+      <c r="W31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="W31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="X31" s="28"/>
+      <c r="X31" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="Y31" s="28"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="14" t="s">
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>107</v>
       </c>
@@ -3871,49 +3927,50 @@
       </c>
       <c r="H32" s="72"/>
       <c r="I32" s="72"/>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="72"/>
+      <c r="K32" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="38" t="s">
+      <c r="L32" s="72"/>
+      <c r="M32" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="72"/>
+      <c r="O32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="O32" s="68">
+      <c r="P32" s="68">
         <v>4</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38" t="s">
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="R32" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39" t="s">
+      <c r="S32" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="V32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="V32" s="39" t="s">
+      <c r="W32" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="W32" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X32" s="36"/>
+      <c r="X32" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="Y32" s="36"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="33" t="s">
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>109</v>
       </c>
@@ -3929,49 +3986,50 @@
       </c>
       <c r="H33" s="72"/>
       <c r="I33" s="72"/>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="72"/>
+      <c r="K33" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="K33" s="72"/>
       <c r="L33" s="72"/>
-      <c r="M33" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N33" s="42" t="s">
+      <c r="M33" s="72"/>
+      <c r="N33" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="O33" s="68">
+      <c r="P33" s="68">
         <v>10</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38" t="s">
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="R33" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39" t="s">
+      <c r="S33" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U33" s="42" t="s">
+      <c r="V33" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="V33" s="43" t="s">
+      <c r="W33" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="W33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="X33" s="36"/>
+      <c r="X33" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="Y33" s="36"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="33" t="s">
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
@@ -3987,49 +4045,50 @@
       </c>
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="73"/>
+      <c r="K34" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="73"/>
-      <c r="N34" s="45" t="s">
+      <c r="L34" s="73"/>
+      <c r="M34" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" s="73"/>
+      <c r="O34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O34" s="68">
+      <c r="P34" s="68">
         <v>4</v>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45" t="s">
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46" t="s">
+      <c r="S34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U34" s="45" t="s">
+      <c r="V34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V34" s="46" t="s">
+      <c r="W34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W34" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X34" s="44"/>
+      <c r="X34" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y34" s="44"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="33" t="s">
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
@@ -4045,49 +4104,50 @@
       </c>
       <c r="H35" s="73"/>
       <c r="I35" s="73"/>
-      <c r="J35" s="73" t="s">
+      <c r="J35" s="73"/>
+      <c r="K35" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="73"/>
-      <c r="N35" s="45" t="s">
+      <c r="L35" s="73"/>
+      <c r="M35" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" s="73"/>
+      <c r="O35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O35" s="68">
+      <c r="P35" s="68">
         <v>4</v>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45" t="s">
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46" t="s">
+      <c r="S35" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U35" s="45" t="s">
+      <c r="V35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="W35" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W35" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X35" s="44"/>
+      <c r="X35" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y35" s="44"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="33" t="s">
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
@@ -4103,49 +4163,50 @@
       </c>
       <c r="H36" s="73"/>
       <c r="I36" s="73"/>
-      <c r="J36" s="73" t="s">
+      <c r="J36" s="73"/>
+      <c r="K36" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K36" s="73"/>
       <c r="L36" s="73"/>
-      <c r="M36" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="48" t="s">
+      <c r="M36" s="73"/>
+      <c r="N36" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O36" s="68">
+      <c r="P36" s="68">
         <v>10</v>
       </c>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45" t="s">
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46" t="s">
+      <c r="S36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U36" s="48" t="s">
+      <c r="V36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V36" s="49" t="s">
+      <c r="W36" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W36" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X36" s="44"/>
+      <c r="X36" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y36" s="44"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="33" t="s">
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
@@ -4161,49 +4222,50 @@
       </c>
       <c r="H37" s="73"/>
       <c r="I37" s="73"/>
-      <c r="J37" s="73" t="s">
+      <c r="J37" s="73"/>
+      <c r="K37" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="73"/>
-      <c r="N37" s="45" t="s">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" s="73"/>
+      <c r="O37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O37" s="68">
+      <c r="P37" s="68">
         <v>4</v>
       </c>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45" t="s">
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R37" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46" t="s">
+      <c r="S37" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U37" s="45" t="s">
+      <c r="V37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="46" t="s">
+      <c r="W37" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W37" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X37" s="44"/>
+      <c r="X37" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y37" s="44"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="33" t="s">
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
@@ -4219,49 +4281,50 @@
       </c>
       <c r="H38" s="73"/>
       <c r="I38" s="73"/>
-      <c r="J38" s="73" t="s">
+      <c r="J38" s="73"/>
+      <c r="K38" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="73"/>
       <c r="L38" s="73"/>
-      <c r="M38" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N38" s="48" t="s">
+      <c r="M38" s="73"/>
+      <c r="N38" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O38" s="68">
+      <c r="P38" s="68">
         <v>10</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45" t="s">
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R38" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46" t="s">
+      <c r="S38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U38" s="48" t="s">
+      <c r="V38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V38" s="49" t="s">
+      <c r="W38" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W38" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X38" s="44"/>
+      <c r="X38" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y38" s="44"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="33" t="s">
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
@@ -4277,49 +4340,50 @@
       </c>
       <c r="H39" s="73"/>
       <c r="I39" s="73"/>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="73"/>
+      <c r="K39" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="73"/>
       <c r="L39" s="73"/>
-      <c r="M39" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N39" s="48" t="s">
+      <c r="M39" s="73"/>
+      <c r="N39" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O39" s="68">
+      <c r="P39" s="68">
         <v>10</v>
       </c>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45" t="s">
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R39" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46" t="s">
+      <c r="S39" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U39" s="48" t="s">
+      <c r="V39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V39" s="49" t="s">
+      <c r="W39" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W39" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X39" s="44"/>
+      <c r="X39" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y39" s="44"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="33" t="s">
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
@@ -4335,49 +4399,50 @@
       </c>
       <c r="H40" s="73"/>
       <c r="I40" s="73"/>
-      <c r="J40" s="73" t="s">
+      <c r="J40" s="73"/>
+      <c r="K40" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="73"/>
-      <c r="N40" s="45" t="s">
+      <c r="L40" s="73"/>
+      <c r="M40" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="73"/>
+      <c r="O40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="68">
+      <c r="P40" s="68">
         <v>4</v>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46" t="s">
+      <c r="S40" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U40" s="45" t="s">
+      <c r="V40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="V40" s="46" t="s">
+      <c r="W40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="W40" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X40" s="44"/>
+      <c r="X40" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y40" s="44"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="33" t="s">
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
@@ -4393,49 +4458,50 @@
       </c>
       <c r="H41" s="73"/>
       <c r="I41" s="73"/>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="73"/>
+      <c r="K41" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="K41" s="73"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N41" s="48" t="s">
+      <c r="M41" s="73"/>
+      <c r="N41" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O41" s="68">
+      <c r="P41" s="68">
         <v>10</v>
       </c>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45" t="s">
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R41" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46" t="s">
+      <c r="S41" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U41" s="48" t="s">
+      <c r="V41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="V41" s="49" t="s">
+      <c r="W41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="W41" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X41" s="44"/>
+      <c r="X41" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y41" s="44"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="33" t="s">
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -4456,48 +4522,49 @@
       <c r="H42" s="70"/>
       <c r="I42" s="70"/>
       <c r="J42" s="70"/>
-      <c r="K42" s="70" t="s">
+      <c r="K42" s="70"/>
+      <c r="L42" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L42" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="M42" s="70"/>
-      <c r="N42" s="19" t="s">
+      <c r="M42" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="N42" s="70"/>
+      <c r="O42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="67">
+      <c r="P42" s="67">
         <v>5</v>
       </c>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59" t="s">
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="R42" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20" t="s">
+      <c r="S42" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U42" s="19" t="s">
+      <c r="V42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V42" s="19" t="s">
+      <c r="W42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="W42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X42" s="17"/>
+      <c r="X42" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="14" t="s">
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -4514,48 +4581,49 @@
       <c r="H43" s="70"/>
       <c r="I43" s="70"/>
       <c r="J43" s="70"/>
-      <c r="K43" s="70" t="s">
+      <c r="K43" s="70"/>
+      <c r="L43" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="N43" s="23" t="s">
+      <c r="M43" s="70"/>
+      <c r="N43" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O43" s="67">
+      <c r="P43" s="67">
         <v>11</v>
       </c>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59" t="s">
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="R43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20" t="s">
+      <c r="S43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U43" s="23" t="s">
+      <c r="V43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="V43" s="20" t="s">
+      <c r="W43" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="W43" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="X43" s="17"/>
+      <c r="X43" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="14" t="s">
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
@@ -4572,48 +4640,49 @@
       <c r="H44" s="71"/>
       <c r="I44" s="71"/>
       <c r="J44" s="71"/>
-      <c r="K44" s="70" t="s">
+      <c r="K44" s="71"/>
+      <c r="L44" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L44" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M44" s="71"/>
-      <c r="N44" s="24" t="s">
+      <c r="M44" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" s="71"/>
+      <c r="O44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O44" s="67">
+      <c r="P44" s="67">
         <v>5</v>
       </c>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60" t="s">
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25" t="s">
+      <c r="S44" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="V44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="W44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W44" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X44" s="14"/>
+      <c r="X44" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y44" s="14"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="14" t="s">
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
@@ -4630,48 +4699,49 @@
       <c r="H45" s="71"/>
       <c r="I45" s="71"/>
       <c r="J45" s="71"/>
-      <c r="K45" s="70" t="s">
+      <c r="K45" s="71"/>
+      <c r="L45" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L45" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="71"/>
-      <c r="N45" s="24" t="s">
+      <c r="M45" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" s="71"/>
+      <c r="O45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="67">
+      <c r="P45" s="67">
         <v>5</v>
       </c>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60" t="s">
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R45" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25" t="s">
+      <c r="S45" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U45" s="24" t="s">
+      <c r="V45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V45" s="24" t="s">
+      <c r="W45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X45" s="14"/>
+      <c r="X45" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y45" s="14"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="14" t="s">
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
@@ -4688,48 +4758,49 @@
       <c r="H46" s="71"/>
       <c r="I46" s="71"/>
       <c r="J46" s="71"/>
-      <c r="K46" s="70" t="s">
+      <c r="K46" s="71"/>
+      <c r="L46" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N46" s="27" t="s">
+      <c r="M46" s="71"/>
+      <c r="N46" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O46" s="67">
+      <c r="P46" s="67">
         <v>11</v>
       </c>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60" t="s">
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R46" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25" t="s">
+      <c r="S46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U46" s="27" t="s">
+      <c r="V46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="V46" s="25" t="s">
+      <c r="W46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="W46" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X46" s="14"/>
+      <c r="X46" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y46" s="14"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="14" t="s">
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
@@ -4746,48 +4817,49 @@
       <c r="H47" s="71"/>
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
-      <c r="K47" s="70" t="s">
+      <c r="K47" s="71"/>
+      <c r="L47" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="71"/>
-      <c r="N47" s="24" t="s">
+      <c r="M47" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N47" s="71"/>
+      <c r="O47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="67">
+      <c r="P47" s="67">
         <v>5</v>
       </c>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60" t="s">
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R47" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25" t="s">
+      <c r="S47" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U47" s="24" t="s">
+      <c r="V47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V47" s="24" t="s">
+      <c r="W47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="W47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X47" s="14"/>
+      <c r="X47" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="Y47" s="14"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="14" t="s">
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
@@ -4804,48 +4876,49 @@
       <c r="H48" s="71"/>
       <c r="I48" s="71"/>
       <c r="J48" s="71"/>
-      <c r="K48" s="70" t="s">
+      <c r="K48" s="71"/>
+      <c r="L48" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N48" s="27" t="s">
+      <c r="M48" s="71"/>
+      <c r="N48" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O48" s="67">
+      <c r="P48" s="67">
         <v>11</v>
       </c>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60" t="s">
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R48" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25" t="s">
+      <c r="S48" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="27" t="s">
+      <c r="V48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="V48" s="25" t="s">
+      <c r="W48" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="W48" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X48" s="14"/>
+      <c r="X48" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y48" s="14"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="14" t="s">
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>78</v>
       </c>
@@ -4862,48 +4935,49 @@
       <c r="H49" s="71"/>
       <c r="I49" s="71"/>
       <c r="J49" s="71"/>
-      <c r="K49" s="70" t="s">
+      <c r="K49" s="71"/>
+      <c r="L49" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N49" s="27" t="s">
+      <c r="M49" s="71"/>
+      <c r="N49" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="O49" s="67">
+      <c r="P49" s="67">
         <v>11</v>
       </c>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60" t="s">
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="R49" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25" t="s">
+      <c r="S49" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U49" s="27" t="s">
+      <c r="V49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="V49" s="25" t="s">
+      <c r="W49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="W49" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X49" s="14"/>
+      <c r="X49" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="Y49" s="14"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="14" t="s">
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>79</v>
       </c>
@@ -4920,48 +4994,49 @@
       <c r="H50" s="71"/>
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
-      <c r="K50" s="70" t="s">
+      <c r="K50" s="71"/>
+      <c r="L50" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="71"/>
-      <c r="N50" s="29" t="s">
+      <c r="M50" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" s="71"/>
+      <c r="O50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="67">
+      <c r="P50" s="67">
         <v>5</v>
       </c>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61" t="s">
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="R50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30" t="s">
+      <c r="S50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U50" s="29" t="s">
+      <c r="V50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V50" s="29" t="s">
+      <c r="W50" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="W50" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="X50" s="28"/>
+      <c r="X50" s="29" t="s">
+        <v>122</v>
+      </c>
       <c r="Y50" s="28"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="14" t="s">
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>80</v>
       </c>
@@ -4978,48 +5053,49 @@
       <c r="H51" s="71"/>
       <c r="I51" s="71"/>
       <c r="J51" s="71"/>
-      <c r="K51" s="70" t="s">
+      <c r="K51" s="71"/>
+      <c r="L51" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="N51" s="32" t="s">
+      <c r="M51" s="71"/>
+      <c r="N51" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="O51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="O51" s="67">
+      <c r="P51" s="67">
         <v>11</v>
       </c>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61" t="s">
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="R51" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30" t="s">
+      <c r="S51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="U51" s="32" t="s">
+      <c r="V51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="V51" s="30" t="s">
+      <c r="W51" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="X51" s="28"/>
+      <c r="X51" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="Y51" s="28"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="14" t="s">
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>81</v>
       </c>
@@ -5040,48 +5116,49 @@
       <c r="H52" s="72"/>
       <c r="I52" s="72"/>
       <c r="J52" s="72"/>
-      <c r="K52" s="72" t="s">
+      <c r="K52" s="72"/>
+      <c r="L52" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="72"/>
-      <c r="N52" s="38" t="s">
+      <c r="M52" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="N52" s="72"/>
+      <c r="O52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O52" s="68">
+      <c r="P52" s="68">
         <v>6</v>
       </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62" t="s">
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="R52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39" t="s">
+      <c r="S52" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U52" s="38" t="s">
+      <c r="V52" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="V52" s="39" t="s">
+      <c r="W52" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="W52" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="X52" s="36"/>
+      <c r="X52" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="Y52" s="36"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="33" t="s">
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>83</v>
       </c>
@@ -5098,48 +5175,49 @@
       <c r="H53" s="72"/>
       <c r="I53" s="72"/>
       <c r="J53" s="72"/>
-      <c r="K53" s="72" t="s">
+      <c r="K53" s="72"/>
+      <c r="L53" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N53" s="42" t="s">
+      <c r="M53" s="72"/>
+      <c r="N53" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="O53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="O53" s="68">
+      <c r="P53" s="68">
         <v>12</v>
       </c>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62" t="s">
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="R53" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39" t="s">
+      <c r="S53" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="U53" s="42" t="s">
+      <c r="V53" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="V53" s="43" t="s">
+      <c r="W53" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="W53" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="X53" s="36"/>
+      <c r="X53" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="Y53" s="36"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="33" t="s">
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>85</v>
       </c>
@@ -5156,48 +5234,49 @@
       <c r="H54" s="73"/>
       <c r="I54" s="73"/>
       <c r="J54" s="73"/>
-      <c r="K54" s="73" t="s">
+      <c r="K54" s="73"/>
+      <c r="L54" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="45" t="s">
+      <c r="M54" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N54" s="73"/>
+      <c r="O54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O54" s="68">
+      <c r="P54" s="68">
         <v>6</v>
       </c>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63" t="s">
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R54" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46" t="s">
+      <c r="S54" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U54" s="45" t="s">
+      <c r="V54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V54" s="46" t="s">
+      <c r="W54" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X54" s="44"/>
+      <c r="X54" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y54" s="44"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="33" t="s">
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>86</v>
       </c>
@@ -5214,48 +5293,49 @@
       <c r="H55" s="73"/>
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
-      <c r="K55" s="73" t="s">
+      <c r="K55" s="73"/>
+      <c r="L55" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M55" s="73"/>
-      <c r="N55" s="45" t="s">
+      <c r="M55" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N55" s="73"/>
+      <c r="O55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O55" s="68">
+      <c r="P55" s="68">
         <v>6</v>
       </c>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63" t="s">
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R55" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46" t="s">
+      <c r="S55" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U55" s="45" t="s">
+      <c r="V55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V55" s="46" t="s">
+      <c r="W55" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X55" s="44"/>
+      <c r="X55" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y55" s="44"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="33" t="s">
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>87</v>
       </c>
@@ -5272,48 +5352,49 @@
       <c r="H56" s="73"/>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
-      <c r="K56" s="73" t="s">
+      <c r="K56" s="73"/>
+      <c r="L56" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N56" s="48" t="s">
+      <c r="M56" s="73"/>
+      <c r="N56" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O56" s="68">
+      <c r="P56" s="68">
         <v>12</v>
       </c>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63" t="s">
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R56" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46" t="s">
+      <c r="S56" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="48" t="s">
+      <c r="V56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V56" s="49" t="s">
+      <c r="W56" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W56" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X56" s="44"/>
+      <c r="X56" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y56" s="44"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="33" t="s">
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="41"/>
+      <c r="AC56" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>88</v>
       </c>
@@ -5330,48 +5411,49 @@
       <c r="H57" s="73"/>
       <c r="I57" s="73"/>
       <c r="J57" s="73"/>
-      <c r="K57" s="73" t="s">
+      <c r="K57" s="73"/>
+      <c r="L57" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L57" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M57" s="73"/>
-      <c r="N57" s="45" t="s">
+      <c r="M57" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N57" s="73"/>
+      <c r="O57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O57" s="68">
+      <c r="P57" s="68">
         <v>6</v>
       </c>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63" t="s">
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R57" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46" t="s">
+      <c r="S57" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U57" s="45" t="s">
+      <c r="V57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V57" s="46" t="s">
+      <c r="W57" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W57" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X57" s="44"/>
+      <c r="X57" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y57" s="44"/>
-      <c r="Z57" s="47"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="33" t="s">
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>89</v>
       </c>
@@ -5388,48 +5470,49 @@
       <c r="H58" s="73"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
-      <c r="K58" s="73" t="s">
+      <c r="K58" s="73"/>
+      <c r="L58" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N58" s="48" t="s">
+      <c r="M58" s="73"/>
+      <c r="N58" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O58" s="68">
+      <c r="P58" s="68">
         <v>12</v>
       </c>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63" t="s">
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R58" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46" t="s">
+      <c r="S58" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U58" s="48" t="s">
+      <c r="V58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V58" s="49" t="s">
+      <c r="W58" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W58" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X58" s="44"/>
+      <c r="X58" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y58" s="44"/>
-      <c r="Z58" s="47"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="33" t="s">
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>90</v>
       </c>
@@ -5446,48 +5529,49 @@
       <c r="H59" s="73"/>
       <c r="I59" s="73"/>
       <c r="J59" s="73"/>
-      <c r="K59" s="73" t="s">
+      <c r="K59" s="73"/>
+      <c r="L59" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N59" s="48" t="s">
+      <c r="M59" s="73"/>
+      <c r="N59" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O59" s="68">
+      <c r="P59" s="68">
         <v>12</v>
       </c>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63" t="s">
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R59" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46" t="s">
+      <c r="S59" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U59" s="48" t="s">
+      <c r="V59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V59" s="49" t="s">
+      <c r="W59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W59" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X59" s="44"/>
+      <c r="X59" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y59" s="44"/>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="33" t="s">
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="41"/>
+      <c r="AC59" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>91</v>
       </c>
@@ -5504,48 +5588,49 @@
       <c r="H60" s="73"/>
       <c r="I60" s="73"/>
       <c r="J60" s="73"/>
-      <c r="K60" s="73" t="s">
+      <c r="K60" s="73"/>
+      <c r="L60" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L60" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="M60" s="73"/>
-      <c r="N60" s="45" t="s">
+      <c r="M60" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N60" s="73"/>
+      <c r="O60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O60" s="68">
+      <c r="P60" s="68">
         <v>6</v>
       </c>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63" t="s">
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46" t="s">
+      <c r="S60" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U60" s="45" t="s">
+      <c r="V60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="V60" s="46" t="s">
+      <c r="W60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W60" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="X60" s="44"/>
+      <c r="X60" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="Y60" s="44"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="33" t="s">
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -5562,44 +5647,45 @@
       <c r="H61" s="73"/>
       <c r="I61" s="73"/>
       <c r="J61" s="73"/>
-      <c r="K61" s="73" t="s">
+      <c r="K61" s="73"/>
+      <c r="L61" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="N61" s="48" t="s">
+      <c r="M61" s="73"/>
+      <c r="N61" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O61" s="68">
+      <c r="P61" s="68">
         <v>12</v>
       </c>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63" t="s">
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="R61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46" t="s">
+      <c r="S61" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="U61" s="48" t="s">
+      <c r="V61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="V61" s="49" t="s">
+      <c r="W61" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="W61" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="X61" s="44"/>
+      <c r="X61" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="Y61" s="44"/>
-      <c r="Z61" s="47"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="33" t="s">
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="41"/>
+      <c r="AC61" s="33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/inst/extdata/expt_smry.xlsx
+++ b/inst/extdata/expt_smry.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AC$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setup!$B$1:$AH$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="133">
   <si>
     <t>Description</t>
   </si>
@@ -744,13 +744,31 @@
     <t>W16</t>
   </si>
   <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Select_sub</t>
+  </si>
+  <si>
+    <t>BI_1</t>
+  </si>
+  <si>
+    <t>BI_2</t>
+  </si>
+  <si>
+    <t>JHU_1</t>
+  </si>
+  <si>
+    <t>JHU_2</t>
+  </si>
+  <si>
+    <t>PNNL_1</t>
+  </si>
+  <si>
+    <t>PNNL_2</t>
+  </si>
+  <si>
     <t>Term_3</t>
-  </si>
-  <si>
-    <t>Select_sub</t>
-  </si>
-  <si>
-    <t>BI_1</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1466,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1625,12 +1643,6 @@
     </xf>
     <xf numFmtId="1" fontId="27" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1978,41 +1990,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J11"/>
+      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" customWidth="1"/>
-    <col min="17" max="18" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="8" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="5" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1" customWidth="1"/>
-    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.42578125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -2034,74 +2046,89 @@
       <c r="G1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="53" t="s">
+      <c r="M1" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="U1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" s="54" t="s">
+      <c r="AC1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="55" t="s">
+      <c r="AE1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AF1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AG1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="52" t="s">
+      <c r="AH1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -2115,58 +2142,41 @@
         <v>1</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="14" t="s">
+      <c r="F2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
@@ -2176,58 +2186,41 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="67">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="14" t="s">
+      <c r="F3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -2241,56 +2234,61 @@
       <c r="G4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="24" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="69"/>
+      <c r="T4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="67">
+      <c r="U4" s="24">
         <v>1</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25" t="s">
+      <c r="X4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="AA4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="AB4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="X4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
@@ -2304,54 +2302,59 @@
       <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="24" t="s">
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="69"/>
+      <c r="T5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="67">
+      <c r="U5" s="24">
         <v>1</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24" t="s">
+      <c r="V5" s="24"/>
+      <c r="W5" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25" t="s">
+      <c r="X5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="AA5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="AB5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
@@ -2365,54 +2368,59 @@
       <c r="G6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="27" t="s">
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="67">
+      <c r="U6" s="27">
         <v>7</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24" t="s">
+      <c r="V6" s="24"/>
+      <c r="W6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25" t="s">
+      <c r="X6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="27" t="s">
+      <c r="AA6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="AB6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="14" t="s">
+      <c r="AC6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -2426,54 +2434,59 @@
       <c r="G7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="70" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="24" t="s">
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="69"/>
+      <c r="T7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="67">
+      <c r="U7" s="24">
         <v>1</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="V7" s="24"/>
+      <c r="W7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S7" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="X7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="AA7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="AB7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="X7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="14" t="s">
+      <c r="AC7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2487,54 +2500,59 @@
       <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="70" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="27" t="s">
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="67">
+      <c r="U8" s="27">
         <v>7</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="V8" s="24"/>
+      <c r="W8" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25" t="s">
+      <c r="X8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="AA8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="AB8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="14" t="s">
+      <c r="AC8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2548,54 +2566,59 @@
       <c r="G9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="70" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="27" t="s">
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="67">
+      <c r="U9" s="27">
         <v>7</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="s">
+      <c r="V9" s="24"/>
+      <c r="W9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S9" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25" t="s">
+      <c r="X9" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="27" t="s">
+      <c r="AA9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="25" t="s">
+      <c r="AB9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="X9" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="14" t="s">
+      <c r="AC9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
@@ -2609,54 +2632,59 @@
       <c r="G10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="29" t="s">
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="69"/>
+      <c r="T10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="67">
+      <c r="U10" s="29">
         <v>1</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29" t="s">
+      <c r="V10" s="29"/>
+      <c r="W10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="S10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30" t="s">
+      <c r="X10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V10" s="29" t="s">
+      <c r="AA10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="W10" s="29" t="s">
+      <c r="AB10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="14" t="s">
+      <c r="AC10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
@@ -2670,54 +2698,59 @@
       <c r="G11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="32" t="s">
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="67">
+      <c r="U11" s="32">
         <v>7</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29" t="s">
+      <c r="V11" s="29"/>
+      <c r="W11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="S11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30" t="s">
+      <c r="X11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="32" t="s">
+      <c r="AA11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="30" t="s">
+      <c r="AB11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="X11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="14" t="s">
+      <c r="AC11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>46</v>
       </c>
@@ -2731,56 +2764,41 @@
         <v>1</v>
       </c>
       <c r="E12" s="35"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="68">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="33" t="s">
+      <c r="F12" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>56</v>
       </c>
@@ -2790,56 +2808,41 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="68">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="S13" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="X13" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="33" t="s">
+      <c r="F13" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
@@ -2856,51 +2859,58 @@
       <c r="H14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="73"/>
-      <c r="O14" s="45" t="s">
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="71"/>
+      <c r="T14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="68">
+      <c r="U14" s="45">
         <v>2</v>
       </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46" t="s">
+      <c r="V14" s="46"/>
+      <c r="W14" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S14" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46" t="s">
+      <c r="X14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="45" t="s">
+      <c r="AA14" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="46" t="s">
+      <c r="AB14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="X14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="33" t="s">
+      <c r="AC14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>48</v>
       </c>
@@ -2914,52 +2924,59 @@
       <c r="G15" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="73"/>
-      <c r="O15" s="45" t="s">
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="71"/>
+      <c r="T15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="68">
+      <c r="U15" s="45">
         <v>2</v>
       </c>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46" t="s">
+      <c r="V15" s="46"/>
+      <c r="W15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46" t="s">
+      <c r="X15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V15" s="45" t="s">
+      <c r="AA15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="46" t="s">
+      <c r="AB15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="X15" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="33" t="s">
+      <c r="AC15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>57</v>
       </c>
@@ -2973,52 +2990,59 @@
       <c r="G16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="72" t="s">
+      <c r="H16" s="71"/>
+      <c r="I16" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="48" t="s">
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="68">
+      <c r="U16" s="48">
         <v>8</v>
       </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46" t="s">
+      <c r="V16" s="46"/>
+      <c r="W16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S16" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46" t="s">
+      <c r="X16" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="48" t="s">
+      <c r="AA16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="W16" s="49" t="s">
+      <c r="AB16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="X16" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="33" t="s">
+      <c r="AC16" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>49</v>
       </c>
@@ -3032,52 +3056,59 @@
       <c r="G17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="73"/>
-      <c r="O17" s="45" t="s">
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="71"/>
+      <c r="T17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="68">
+      <c r="U17" s="45">
         <v>2</v>
       </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46" t="s">
+      <c r="V17" s="46"/>
+      <c r="W17" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S17" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46" t="s">
+      <c r="X17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V17" s="45" t="s">
+      <c r="AA17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="46" t="s">
+      <c r="AB17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="X17" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="33" t="s">
+      <c r="AC17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
@@ -3091,52 +3122,59 @@
       <c r="G18" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O18" s="48" t="s">
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="68">
+      <c r="U18" s="48">
         <v>8</v>
       </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46" t="s">
+      <c r="V18" s="46"/>
+      <c r="W18" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46" t="s">
+      <c r="X18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V18" s="48" t="s">
+      <c r="AA18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="W18" s="49" t="s">
+      <c r="AB18" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="33" t="s">
+      <c r="AC18" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>59</v>
       </c>
@@ -3150,52 +3188,59 @@
       <c r="G19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="72" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" s="48" t="s">
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="68">
+      <c r="U19" s="48">
         <v>8</v>
       </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46" t="s">
+      <c r="V19" s="46"/>
+      <c r="W19" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S19" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46" t="s">
+      <c r="X19" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="48" t="s">
+      <c r="AA19" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="W19" s="49" t="s">
+      <c r="AB19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="X19" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="33" t="s">
+      <c r="AC19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>50</v>
       </c>
@@ -3209,52 +3254,59 @@
       <c r="G20" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="72" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" s="73"/>
-      <c r="O20" s="45" t="s">
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="71"/>
+      <c r="T20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="68">
+      <c r="U20" s="45">
         <v>2</v>
       </c>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46" t="s">
+      <c r="V20" s="46"/>
+      <c r="W20" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46" t="s">
+      <c r="X20" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="45" t="s">
+      <c r="AA20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="W20" s="46" t="s">
+      <c r="AB20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="X20" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="33" t="s">
+      <c r="AC20" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -3268,52 +3320,59 @@
       <c r="G21" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="71"/>
+      <c r="I21" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="48" t="s">
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="68">
+      <c r="U21" s="48">
         <v>8</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46" t="s">
+      <c r="V21" s="46"/>
+      <c r="W21" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="S21" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46" t="s">
+      <c r="X21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="48" t="s">
+      <c r="AA21" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="W21" s="49" t="s">
+      <c r="AB21" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="X21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="33" t="s">
+      <c r="AC21" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -3327,56 +3386,41 @@
         <v>1</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="67">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="S22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="W22" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="X22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="14" t="s">
+      <c r="F22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
@@ -3386,56 +3430,41 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="P23" s="67">
-        <v>9</v>
-      </c>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="S23" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="W23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="X23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="14" t="s">
+      <c r="F23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
@@ -3449,52 +3478,59 @@
       <c r="G24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="70" t="s">
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L24" s="70"/>
-      <c r="M24" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="24" t="s">
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="69"/>
+      <c r="T24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P24" s="67">
+      <c r="U24" s="24">
         <v>3</v>
       </c>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57" t="s">
+      <c r="V24" s="57"/>
+      <c r="W24" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="S24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25" t="s">
+      <c r="X24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V24" s="24" t="s">
+      <c r="AA24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="W24" s="24" t="s">
+      <c r="AB24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="X24" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="14" t="s">
+      <c r="AC24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
@@ -3508,52 +3544,59 @@
       <c r="G25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="70" t="s">
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="70"/>
-      <c r="M25" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="24" t="s">
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="69"/>
+      <c r="T25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="67">
+      <c r="U25" s="24">
         <v>3</v>
       </c>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57" t="s">
+      <c r="V25" s="57"/>
+      <c r="W25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="S25" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25" t="s">
+      <c r="X25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V25" s="24" t="s">
+      <c r="AA25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="W25" s="24" t="s">
+      <c r="AB25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="X25" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="14" t="s">
+      <c r="AC25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
@@ -3567,52 +3610,59 @@
       <c r="G26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="70" t="s">
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L26" s="70"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O26" s="27" t="s">
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="67">
+      <c r="U26" s="27">
         <v>9</v>
       </c>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57" t="s">
+      <c r="V26" s="57"/>
+      <c r="W26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="S26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25" t="s">
+      <c r="X26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="27" t="s">
+      <c r="AA26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="W26" s="25" t="s">
+      <c r="AB26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="X26" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="14" t="s">
+      <c r="AC26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
@@ -3626,52 +3676,59 @@
       <c r="G27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="70" t="s">
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="24" t="s">
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="69"/>
+      <c r="T27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="67">
+      <c r="U27" s="24">
         <v>3</v>
       </c>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57" t="s">
+      <c r="V27" s="57"/>
+      <c r="W27" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="S27" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25" t="s">
+      <c r="X27" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V27" s="24" t="s">
+      <c r="AA27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="AB27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="14" t="s">
+      <c r="AC27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
@@ -3685,52 +3742,59 @@
       <c r="G28" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="70" t="s">
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="27" t="s">
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P28" s="67">
+      <c r="U28" s="27">
         <v>9</v>
       </c>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57" t="s">
+      <c r="V28" s="57"/>
+      <c r="W28" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="S28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25" t="s">
+      <c r="X28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="27" t="s">
+      <c r="AA28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="25" t="s">
+      <c r="AB28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="X28" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="14" t="s">
+      <c r="AC28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>104</v>
       </c>
@@ -3744,52 +3808,59 @@
       <c r="G29" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="70" t="s">
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" s="27" t="s">
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="67">
+      <c r="U29" s="27">
         <v>9</v>
       </c>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57" t="s">
+      <c r="V29" s="57"/>
+      <c r="W29" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="S29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25" t="s">
+      <c r="X29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V29" s="27" t="s">
+      <c r="AA29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="W29" s="25" t="s">
+      <c r="AB29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="X29" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="14" t="s">
+      <c r="AC29" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>105</v>
       </c>
@@ -3803,52 +3874,59 @@
       <c r="G30" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="70" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="71"/>
-      <c r="O30" s="29" t="s">
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="69"/>
+      <c r="T30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="P30" s="67">
+      <c r="U30" s="29">
         <v>3</v>
       </c>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58" t="s">
+      <c r="V30" s="58"/>
+      <c r="W30" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="S30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30" t="s">
+      <c r="X30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V30" s="29" t="s">
+      <c r="AA30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="W30" s="29" t="s">
+      <c r="AB30" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="X30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="14" t="s">
+      <c r="AC30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>106</v>
       </c>
@@ -3862,52 +3940,59 @@
       <c r="G31" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="70" t="s">
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O31" s="32" t="s">
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="67">
+      <c r="U31" s="32">
         <v>9</v>
       </c>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58" t="s">
+      <c r="V31" s="58"/>
+      <c r="W31" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30" t="s">
+      <c r="X31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V31" s="32" t="s">
+      <c r="AA31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="W31" s="30" t="s">
+      <c r="AB31" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="X31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="14" t="s">
+      <c r="AC31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>107</v>
       </c>
@@ -3921,56 +4006,41 @@
         <v>1</v>
       </c>
       <c r="E32" s="35"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="N32" s="72"/>
-      <c r="O32" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="P32" s="68">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="S32" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V32" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="W32" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="X32" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="33" t="s">
+      <c r="F32" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>109</v>
       </c>
@@ -3980,56 +4050,41 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="P33" s="68">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="S33" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V33" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="W33" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="X33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="33" t="s">
+      <c r="F33" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>111</v>
       </c>
@@ -4043,52 +4098,59 @@
       <c r="G34" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73" t="s">
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" s="73"/>
-      <c r="O34" s="45" t="s">
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="71"/>
+      <c r="T34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P34" s="68">
+      <c r="U34" s="45">
         <v>4</v>
       </c>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45" t="s">
+      <c r="V34" s="45"/>
+      <c r="W34" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46" t="s">
+      <c r="X34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V34" s="45" t="s">
+      <c r="AA34" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="W34" s="46" t="s">
+      <c r="AB34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="X34" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="33" t="s">
+      <c r="AC34" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>112</v>
       </c>
@@ -4102,52 +4164,59 @@
       <c r="G35" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73" t="s">
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" s="73"/>
-      <c r="O35" s="45" t="s">
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S35" s="71"/>
+      <c r="T35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="68">
+      <c r="U35" s="45">
         <v>4</v>
       </c>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45" t="s">
+      <c r="V35" s="45"/>
+      <c r="W35" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46" t="s">
+      <c r="X35" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V35" s="45" t="s">
+      <c r="AA35" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="W35" s="46" t="s">
+      <c r="AB35" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="X35" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="33" t="s">
+      <c r="AC35" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>113</v>
       </c>
@@ -4161,52 +4230,59 @@
       <c r="G36" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73" t="s">
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O36" s="48" t="s">
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P36" s="68">
+      <c r="U36" s="48">
         <v>10</v>
       </c>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45" t="s">
+      <c r="V36" s="45"/>
+      <c r="W36" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46" t="s">
+      <c r="X36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V36" s="48" t="s">
+      <c r="AA36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="W36" s="49" t="s">
+      <c r="AB36" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="X36" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="33" t="s">
+      <c r="AC36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>114</v>
       </c>
@@ -4220,52 +4296,59 @@
       <c r="G37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73" t="s">
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N37" s="73"/>
-      <c r="O37" s="45" t="s">
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="71"/>
+      <c r="T37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="68">
+      <c r="U37" s="45">
         <v>4</v>
       </c>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45" t="s">
+      <c r="V37" s="45"/>
+      <c r="W37" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S37" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46" t="s">
+      <c r="X37" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V37" s="45" t="s">
+      <c r="AA37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="W37" s="46" t="s">
+      <c r="AB37" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="X37" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="33" t="s">
+      <c r="AC37" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>115</v>
       </c>
@@ -4279,52 +4362,59 @@
       <c r="G38" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73" t="s">
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O38" s="48" t="s">
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="68">
+      <c r="U38" s="48">
         <v>10</v>
       </c>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45" t="s">
+      <c r="V38" s="45"/>
+      <c r="W38" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S38" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46" t="s">
+      <c r="X38" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V38" s="48" t="s">
+      <c r="AA38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="W38" s="49" t="s">
+      <c r="AB38" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="X38" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="33" t="s">
+      <c r="AC38" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
@@ -4338,52 +4428,59 @@
       <c r="G39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73" t="s">
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O39" s="48" t="s">
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P39" s="68">
+      <c r="U39" s="48">
         <v>10</v>
       </c>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45" t="s">
+      <c r="V39" s="45"/>
+      <c r="W39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S39" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46" t="s">
+      <c r="X39" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V39" s="48" t="s">
+      <c r="AA39" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="W39" s="49" t="s">
+      <c r="AB39" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="X39" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="33" t="s">
+      <c r="AC39" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>117</v>
       </c>
@@ -4397,52 +4494,59 @@
       <c r="G40" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73" t="s">
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N40" s="73"/>
-      <c r="O40" s="45" t="s">
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="71"/>
+      <c r="T40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="68">
+      <c r="U40" s="45">
         <v>4</v>
       </c>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45" t="s">
+      <c r="V40" s="45"/>
+      <c r="W40" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46" t="s">
+      <c r="X40" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V40" s="45" t="s">
+      <c r="AA40" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="W40" s="46" t="s">
+      <c r="AB40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="X40" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="33" t="s">
+      <c r="AC40" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>118</v>
       </c>
@@ -4456,52 +4560,59 @@
       <c r="G41" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73" t="s">
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O41" s="48" t="s">
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="P41" s="68">
+      <c r="U41" s="48">
         <v>10</v>
       </c>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45" t="s">
+      <c r="V41" s="45"/>
+      <c r="W41" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="S41" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46" t="s">
+      <c r="X41" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V41" s="48" t="s">
+      <c r="AA41" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="W41" s="49" t="s">
+      <c r="AB41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="X41" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="33" t="s">
+      <c r="AC41" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -4515,56 +4626,41 @@
         <v>1</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="M42" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="N42" s="70"/>
-      <c r="O42" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P42" s="67">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="W42" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="X42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="14" t="s">
+      <c r="F42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -4574,56 +4670,41 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P43" s="67">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="S43" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V43" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="W43" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="X43" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="14" t="s">
+      <c r="F43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
@@ -4637,52 +4718,59 @@
       <c r="G44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="70" t="s">
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M44" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N44" s="71"/>
-      <c r="O44" s="24" t="s">
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="69"/>
+      <c r="T44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P44" s="67">
+      <c r="U44" s="24">
         <v>5</v>
       </c>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60" t="s">
+      <c r="V44" s="60"/>
+      <c r="W44" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="S44" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25" t="s">
+      <c r="X44" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="AA44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W44" s="24" t="s">
+      <c r="AB44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="X44" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="14" t="s">
+      <c r="AC44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
@@ -4696,52 +4784,59 @@
       <c r="G45" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="70" t="s">
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M45" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N45" s="71"/>
-      <c r="O45" s="24" t="s">
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" s="69"/>
+      <c r="T45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P45" s="67">
+      <c r="U45" s="24">
         <v>5</v>
       </c>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60" t="s">
+      <c r="V45" s="60"/>
+      <c r="W45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="S45" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25" t="s">
+      <c r="X45" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V45" s="24" t="s">
+      <c r="AA45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W45" s="24" t="s">
+      <c r="AB45" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="X45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="14" t="s">
+      <c r="AC45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
@@ -4755,52 +4850,59 @@
       <c r="G46" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="70" t="s">
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O46" s="27" t="s">
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="67">
+      <c r="U46" s="27">
         <v>11</v>
       </c>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60" t="s">
+      <c r="V46" s="60"/>
+      <c r="W46" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="S46" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25" t="s">
+      <c r="X46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V46" s="27" t="s">
+      <c r="AA46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="W46" s="25" t="s">
+      <c r="AB46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X46" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="14" t="s">
+      <c r="AC46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
@@ -4814,52 +4916,59 @@
       <c r="G47" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="70" t="s">
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M47" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N47" s="71"/>
-      <c r="O47" s="24" t="s">
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S47" s="69"/>
+      <c r="T47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P47" s="67">
+      <c r="U47" s="24">
         <v>5</v>
       </c>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60" t="s">
+      <c r="V47" s="60"/>
+      <c r="W47" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="S47" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25" t="s">
+      <c r="X47" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V47" s="24" t="s">
+      <c r="AA47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W47" s="24" t="s">
+      <c r="AB47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="X47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="14" t="s">
+      <c r="AC47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
@@ -4873,52 +4982,59 @@
       <c r="G48" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="70" t="s">
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O48" s="27" t="s">
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P48" s="67">
+      <c r="U48" s="27">
         <v>11</v>
       </c>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60" t="s">
+      <c r="V48" s="60"/>
+      <c r="W48" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="S48" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25" t="s">
+      <c r="X48" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V48" s="27" t="s">
+      <c r="AA48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="W48" s="25" t="s">
+      <c r="AB48" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X48" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="14" t="s">
+      <c r="AC48" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>78</v>
       </c>
@@ -4932,52 +5048,59 @@
       <c r="G49" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="70" t="s">
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O49" s="27" t="s">
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P49" s="67">
+      <c r="U49" s="27">
         <v>11</v>
       </c>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60" t="s">
+      <c r="V49" s="60"/>
+      <c r="W49" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="S49" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25" t="s">
+      <c r="X49" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V49" s="27" t="s">
+      <c r="AA49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="W49" s="25" t="s">
+      <c r="AB49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X49" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="14" t="s">
+      <c r="AC49" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>79</v>
       </c>
@@ -4991,52 +5114,59 @@
       <c r="G50" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="70" t="s">
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M50" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="29" t="s">
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="S50" s="69"/>
+      <c r="T50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="P50" s="67">
+      <c r="U50" s="29">
         <v>5</v>
       </c>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61" t="s">
+      <c r="V50" s="61"/>
+      <c r="W50" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="S50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30" t="s">
+      <c r="X50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V50" s="29" t="s">
+      <c r="AA50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="W50" s="29" t="s">
+      <c r="AB50" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="X50" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="14" t="s">
+      <c r="AC50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>80</v>
       </c>
@@ -5050,52 +5180,59 @@
       <c r="G51" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="70" t="s">
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="O51" s="32" t="s">
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="T51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P51" s="67">
+      <c r="U51" s="32">
         <v>11</v>
       </c>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61" t="s">
+      <c r="V51" s="61"/>
+      <c r="W51" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="S51" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30" t="s">
+      <c r="X51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="V51" s="32" t="s">
+      <c r="AA51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="W51" s="30" t="s">
+      <c r="AB51" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="X51" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="14" t="s">
+      <c r="AC51" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>81</v>
       </c>
@@ -5109,56 +5246,41 @@
         <v>1</v>
       </c>
       <c r="E52" s="35"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="M52" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="N52" s="72"/>
-      <c r="O52" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P52" s="68">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="S52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V52" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="W52" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="X52" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="36"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="33" t="s">
+      <c r="F52" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="38"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="40"/>
+      <c r="AG52" s="41"/>
+      <c r="AH52" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>83</v>
       </c>
@@ -5168,56 +5290,41 @@
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="35"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="O53" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="P53" s="68">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="S53" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="V53" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="W53" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="X53" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="33" t="s">
+      <c r="F53" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="40"/>
+      <c r="AG53" s="41"/>
+      <c r="AH53" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>85</v>
       </c>
@@ -5231,52 +5338,59 @@
       <c r="G54" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73" t="s">
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M54" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N54" s="73"/>
-      <c r="O54" s="45" t="s">
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S54" s="71"/>
+      <c r="T54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P54" s="68">
+      <c r="U54" s="45">
         <v>6</v>
       </c>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63" t="s">
+      <c r="V54" s="63"/>
+      <c r="W54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S54" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46" t="s">
+      <c r="X54" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V54" s="45" t="s">
+      <c r="AA54" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="W54" s="46" t="s">
+      <c r="AB54" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="X54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="33" t="s">
+      <c r="AC54" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>86</v>
       </c>
@@ -5290,52 +5404,59 @@
       <c r="G55" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73" t="s">
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M55" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N55" s="73"/>
-      <c r="O55" s="45" t="s">
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S55" s="71"/>
+      <c r="T55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="68">
+      <c r="U55" s="45">
         <v>6</v>
       </c>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63" t="s">
+      <c r="V55" s="63"/>
+      <c r="W55" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S55" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T55" s="46"/>
-      <c r="U55" s="46" t="s">
+      <c r="X55" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V55" s="45" t="s">
+      <c r="AA55" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="W55" s="46" t="s">
+      <c r="AB55" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="X55" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="33" t="s">
+      <c r="AC55" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="41"/>
+      <c r="AH55" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>87</v>
       </c>
@@ -5349,52 +5470,59 @@
       <c r="G56" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73" t="s">
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O56" s="48" t="s">
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="68">
+      <c r="U56" s="48">
         <v>12</v>
       </c>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63" t="s">
+      <c r="V56" s="63"/>
+      <c r="W56" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S56" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46" t="s">
+      <c r="X56" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V56" s="48" t="s">
+      <c r="AA56" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="W56" s="49" t="s">
+      <c r="AB56" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="X56" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="33" t="s">
+      <c r="AC56" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="41"/>
+      <c r="AH56" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>88</v>
       </c>
@@ -5408,52 +5536,59 @@
       <c r="G57" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73" t="s">
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N57" s="73"/>
-      <c r="O57" s="45" t="s">
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R57" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S57" s="71"/>
+      <c r="T57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="68">
+      <c r="U57" s="45">
         <v>6</v>
       </c>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63" t="s">
+      <c r="V57" s="63"/>
+      <c r="W57" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S57" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46" t="s">
+      <c r="X57" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V57" s="45" t="s">
+      <c r="AA57" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="W57" s="46" t="s">
+      <c r="AB57" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="X57" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="47"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="33" t="s">
+      <c r="AC57" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="41"/>
+      <c r="AH57" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>89</v>
       </c>
@@ -5467,52 +5602,59 @@
       <c r="G58" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73" t="s">
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O58" s="48" t="s">
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="68">
+      <c r="U58" s="48">
         <v>12</v>
       </c>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63" t="s">
+      <c r="V58" s="63"/>
+      <c r="W58" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S58" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46" t="s">
+      <c r="X58" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V58" s="48" t="s">
+      <c r="AA58" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="W58" s="49" t="s">
+      <c r="AB58" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="X58" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="47"/>
-      <c r="AB58" s="41"/>
-      <c r="AC58" s="33" t="s">
+      <c r="AC58" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="41"/>
+      <c r="AH58" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>90</v>
       </c>
@@ -5526,52 +5668,59 @@
       <c r="G59" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73" t="s">
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O59" s="48" t="s">
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="68">
+      <c r="U59" s="48">
         <v>12</v>
       </c>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63" t="s">
+      <c r="V59" s="63"/>
+      <c r="W59" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S59" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46" t="s">
+      <c r="X59" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V59" s="48" t="s">
+      <c r="AA59" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="W59" s="49" t="s">
+      <c r="AB59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="X59" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="33" t="s">
+      <c r="AC59" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="41"/>
+      <c r="AH59" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>91</v>
       </c>
@@ -5585,52 +5734,59 @@
       <c r="G60" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73" t="s">
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M60" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="N60" s="73"/>
-      <c r="O60" s="45" t="s">
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R60" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="S60" s="71"/>
+      <c r="T60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="P60" s="68">
+      <c r="U60" s="45">
         <v>6</v>
       </c>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63" t="s">
+      <c r="V60" s="63"/>
+      <c r="W60" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46" t="s">
+      <c r="X60" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V60" s="45" t="s">
+      <c r="AA60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="W60" s="46" t="s">
+      <c r="AB60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="X60" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="47"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="33" t="s">
+      <c r="AC60" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>92</v>
       </c>
@@ -5644,48 +5800,55 @@
       <c r="G61" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73" t="s">
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="O61" s="48" t="s">
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="T61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P61" s="68">
+      <c r="U61" s="48">
         <v>12</v>
       </c>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63" t="s">
+      <c r="V61" s="63"/>
+      <c r="W61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="S61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46" t="s">
+      <c r="X61" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="V61" s="48" t="s">
+      <c r="AA61" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="W61" s="49" t="s">
+      <c r="AB61" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="X61" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="44"/>
-      <c r="AA61" s="47"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="33" t="s">
+      <c r="AC61" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="41"/>
+      <c r="AH61" s="33" t="s">
         <v>36</v>
       </c>
     </row>
